--- a/回归结果/single玉米.xlsx
+++ b/回归结果/single玉米.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
-    <sheet name="方差检验" sheetId="2" r:id="rId2"/>
-    <sheet name="vif" sheetId="3" r:id="rId3"/>
-    <sheet name="各要素回归" sheetId="4" r:id="rId4"/>
-    <sheet name="回归结果" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="方差检验" sheetId="2" r:id="rId3"/>
+    <sheet name="vif" sheetId="3" r:id="rId4"/>
+    <sheet name="各要素回归" sheetId="4" r:id="rId5"/>
+    <sheet name="回归结果" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">回归结果!$A$21:$G$70</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="156">
   <si>
     <t>yield</t>
   </si>
@@ -540,16 +541,322 @@
     <t>F= 19.42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样本数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=17859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=11597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=5497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单产（千克、亩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投工量（日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家庭投工量（日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雇佣投工量（日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥料投入（元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械投入（元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他投入（元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耕地细碎化（亩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭人口结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼业化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,12 +1047,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1045,7 +1390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1087,7 +1432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,9 +1464,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,6 +1499,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1328,14 +1675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS198"/>
   <sheetViews>
-    <sheetView topLeftCell="AA121" workbookViewId="0">
-      <selection activeCell="AA142" sqref="AA142:AG198"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection sqref="A1:AS22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="12" width="9.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.625" customWidth="1"/>
@@ -1351,7 +1698,7 @@
     <col min="45" max="45" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15">
+    <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="28" t="s">
         <v>119</v>
@@ -1400,7 +1747,7 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:45" ht="15">
+    <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1804,7 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
     </row>
-    <row r="3" spans="1:45" ht="15">
+    <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -1584,7 +1931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15">
+    <row r="4" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +2060,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15">
+    <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +2189,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="15">
+    <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1971,7 +2318,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15">
+    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2447,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15">
+    <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2576,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="15">
+    <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2705,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="15">
+    <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2834,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="15">
+    <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2963,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15">
+    <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -2745,7 +3092,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15">
+    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +3221,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15">
+    <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3003,7 +3350,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15">
+    <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -3132,7 +3479,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15">
+    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3608,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15">
+    <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -3390,7 +3737,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15">
+    <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -3519,7 +3866,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="15">
+    <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -3648,7 +3995,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="15">
+    <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +4124,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="15">
+    <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3906,7 +4253,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="15">
+    <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4382,7 @@
         <v>17859</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="15">
+    <row r="24" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
         <v>31</v>
       </c>
@@ -4051,7 +4398,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:45" ht="15">
+    <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>30</v>
       </c>
@@ -4108,7 +4455,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
     </row>
-    <row r="26" spans="1:45" ht="15">
+    <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
@@ -4235,7 +4582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="15">
+    <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -4364,7 +4711,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="15">
+    <row r="28" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4840,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="15">
+    <row r="29" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4969,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="15">
+    <row r="30" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +5098,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="15">
+    <row r="31" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +5227,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="15">
+    <row r="32" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +5356,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="15">
+    <row r="33" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -5138,7 +5485,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="15">
+    <row r="34" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5267,7 +5614,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="15">
+    <row r="35" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
@@ -5396,7 +5743,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="15">
+    <row r="36" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -5525,7 +5872,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="15">
+    <row r="37" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +6001,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="15">
+    <row r="38" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -5783,7 +6130,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="15">
+    <row r="39" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -5912,7 +6259,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="15">
+    <row r="40" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -6041,7 +6388,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="15">
+    <row r="41" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -6170,7 +6517,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="15">
+    <row r="42" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
@@ -6299,7 +6646,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="15">
+    <row r="43" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -6428,7 +6775,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="15">
+    <row r="44" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -6557,7 +6904,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="15">
+    <row r="45" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8">
@@ -6684,7 +7031,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15">
+    <row r="48" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>32</v>
       </c>
@@ -6700,7 +7047,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:45" ht="15">
+    <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>30</v>
       </c>
@@ -6757,7 +7104,7 @@
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
     </row>
-    <row r="50" spans="1:45" ht="15">
+    <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -6884,7 +7231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="15">
+    <row r="51" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -7013,7 +7360,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="15">
+    <row r="52" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
@@ -7142,7 +7489,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="15">
+    <row r="53" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
@@ -7271,7 +7618,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="15">
+    <row r="54" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
@@ -7400,7 +7747,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="15">
+    <row r="55" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -7529,7 +7876,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="15">
+    <row r="56" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +8005,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="15">
+    <row r="57" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
@@ -7787,7 +8134,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="15">
+    <row r="58" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -7916,7 +8263,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="15">
+    <row r="59" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -8045,7 +8392,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="15">
+    <row r="60" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
@@ -8174,7 +8521,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="15">
+    <row r="61" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>10</v>
       </c>
@@ -8303,7 +8650,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="15">
+    <row r="62" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -8432,7 +8779,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="15">
+    <row r="63" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
@@ -8561,7 +8908,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="15">
+    <row r="64" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
@@ -8690,7 +9037,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="15">
+    <row r="65" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +9166,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="15">
+    <row r="66" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>16</v>
       </c>
@@ -8948,7 +9295,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="15">
+    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
@@ -9077,7 +9424,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="15">
+    <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>18</v>
       </c>
@@ -9206,7 +9553,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="15">
+    <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>19</v>
       </c>
@@ -9335,7 +9682,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="15">
+    <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="25" t="s">
         <v>33</v>
       </c>
@@ -9351,7 +9698,7 @@
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
     </row>
-    <row r="73" spans="1:45" ht="15">
+    <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="26" t="s">
         <v>30</v>
       </c>
@@ -9408,7 +9755,7 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
     </row>
-    <row r="74" spans="1:45" ht="15">
+    <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
@@ -9535,7 +9882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="15">
+    <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>0</v>
       </c>
@@ -9664,7 +10011,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="15">
+    <row r="76" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>1</v>
       </c>
@@ -9793,7 +10140,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="15">
+    <row r="77" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>2</v>
       </c>
@@ -9922,7 +10269,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="15">
+    <row r="78" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
@@ -10051,7 +10398,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="15">
+    <row r="79" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
@@ -10180,7 +10527,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="15">
+    <row r="80" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
@@ -10309,7 +10656,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="15">
+    <row r="81" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>6</v>
       </c>
@@ -10438,7 +10785,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="15">
+    <row r="82" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -10567,7 +10914,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="15">
+    <row r="83" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>8</v>
       </c>
@@ -10696,7 +11043,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="15">
+    <row r="84" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
@@ -10825,7 +11172,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="15">
+    <row r="85" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>10</v>
       </c>
@@ -10954,7 +11301,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="15">
+    <row r="86" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -11083,7 +11430,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="15">
+    <row r="87" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>12</v>
       </c>
@@ -11212,7 +11559,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="15">
+    <row r="88" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -11341,7 +11688,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="15">
+    <row r="89" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>15</v>
       </c>
@@ -11470,7 +11817,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="15">
+    <row r="90" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -11599,7 +11946,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="15">
+    <row r="91" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
@@ -11728,7 +12075,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="15">
+    <row r="92" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
@@ -11857,7 +12204,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="15">
+    <row r="93" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>19</v>
       </c>
@@ -11986,7 +12333,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="15">
+    <row r="95" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="25" t="s">
         <v>34</v>
       </c>
@@ -12002,7 +12349,7 @@
       <c r="K95" s="25"/>
       <c r="L95" s="25"/>
     </row>
-    <row r="96" spans="1:45" ht="15">
+    <row r="96" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="26" t="s">
         <v>30</v>
       </c>
@@ -12059,7 +12406,7 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
     </row>
-    <row r="97" spans="1:45" ht="15">
+    <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
@@ -12186,7 +12533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="15">
+    <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>0</v>
       </c>
@@ -12315,7 +12662,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="15">
+    <row r="99" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12791,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="15">
+    <row r="100" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -12573,7 +12920,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="15">
+    <row r="101" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>3</v>
       </c>
@@ -12702,7 +13049,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="15">
+    <row r="102" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>4</v>
       </c>
@@ -12831,7 +13178,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="15">
+    <row r="103" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
@@ -12960,7 +13307,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="15">
+    <row r="104" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>6</v>
       </c>
@@ -13089,7 +13436,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="15">
+    <row r="105" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -13218,7 +13565,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="15">
+    <row r="106" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>8</v>
       </c>
@@ -13347,7 +13694,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="15">
+    <row r="107" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>9</v>
       </c>
@@ -13476,7 +13823,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="15">
+    <row r="108" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>10</v>
       </c>
@@ -13605,7 +13952,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="15">
+    <row r="109" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -13734,7 +14081,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="15">
+    <row r="110" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -13863,7 +14210,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="15">
+    <row r="111" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -13992,7 +14339,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="15">
+    <row r="112" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>15</v>
       </c>
@@ -14121,7 +14468,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="15">
+    <row r="113" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>16</v>
       </c>
@@ -14250,7 +14597,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="15">
+    <row r="114" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
@@ -14379,7 +14726,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="15">
+    <row r="115" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -14508,7 +14855,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="15">
+    <row r="116" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
         <v>19</v>
       </c>
@@ -14637,7 +14984,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="15">
+    <row r="118" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="25" t="s">
         <v>35</v>
       </c>
@@ -14653,7 +15000,7 @@
       <c r="K118" s="25"/>
       <c r="L118" s="25"/>
     </row>
-    <row r="119" spans="1:45" ht="15">
+    <row r="119" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="26" t="s">
         <v>30</v>
       </c>
@@ -14710,7 +15057,7 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
     </row>
-    <row r="120" spans="1:45" ht="15">
+    <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6" t="s">
@@ -14837,7 +15184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="15">
+    <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>0</v>
       </c>
@@ -14966,7 +15313,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="15">
+    <row r="122" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -15095,7 +15442,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="15">
+    <row r="123" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>2</v>
       </c>
@@ -15224,7 +15571,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15">
+    <row r="124" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>3</v>
       </c>
@@ -15353,7 +15700,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="15">
+    <row r="125" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
@@ -15482,7 +15829,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="15">
+    <row r="126" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>5</v>
       </c>
@@ -15611,7 +15958,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="15">
+    <row r="127" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>6</v>
       </c>
@@ -15740,7 +16087,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="15">
+    <row r="128" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -15869,7 +16216,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="129" spans="1:45" ht="15">
+    <row r="129" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>8</v>
       </c>
@@ -15998,7 +16345,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="130" spans="1:45" ht="15">
+    <row r="130" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>9</v>
       </c>
@@ -16127,7 +16474,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="131" spans="1:45" ht="15">
+    <row r="131" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>10</v>
       </c>
@@ -16256,7 +16603,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="15">
+    <row r="132" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -16385,7 +16732,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="133" spans="1:45" ht="15">
+    <row r="133" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -16514,7 +16861,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="134" spans="1:45" ht="15">
+    <row r="134" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
@@ -16643,7 +16990,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="15">
+    <row r="135" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>15</v>
       </c>
@@ -16772,7 +17119,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="15">
+    <row r="136" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -16901,7 +17248,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="15">
+    <row r="137" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>17</v>
       </c>
@@ -17030,7 +17377,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="15">
+    <row r="138" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>18</v>
       </c>
@@ -17159,7 +17506,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="15">
+    <row r="139" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>19</v>
       </c>
@@ -17288,7 +17635,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15">
+    <row r="142" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="AA142" s="1" t="s">
         <v>36</v>
       </c>
@@ -17309,7 +17656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15">
+    <row r="143" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="AA143" s="1" t="s">
         <v>0</v>
       </c>
@@ -17332,7 +17679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15">
+    <row r="144" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="AA144" s="1"/>
       <c r="AB144" s="1" t="s">
         <v>42</v>
@@ -17351,7 +17698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="27:33" ht="15">
+    <row r="145" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA145" s="1"/>
       <c r="AB145" s="1" t="s">
         <v>43</v>
@@ -17370,7 +17717,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="27:33" ht="15">
+    <row r="146" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA146" s="1" t="s">
         <v>1</v>
       </c>
@@ -17391,7 +17738,7 @@
       </c>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="27:33" ht="15">
+    <row r="147" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA147" s="1"/>
       <c r="AB147" s="1" t="s">
         <v>42</v>
@@ -17408,7 +17755,7 @@
       </c>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="27:33" ht="15">
+    <row r="148" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA148" s="1"/>
       <c r="AB148" s="1" t="s">
         <v>43</v>
@@ -17425,7 +17772,7 @@
       </c>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="27:33" ht="15">
+    <row r="149" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA149" s="1" t="s">
         <v>2</v>
       </c>
@@ -17446,7 +17793,7 @@
       </c>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="27:33" ht="15">
+    <row r="150" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA150" s="1"/>
       <c r="AB150" s="1" t="s">
         <v>42</v>
@@ -17463,7 +17810,7 @@
       </c>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="27:33" ht="15">
+    <row r="151" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA151" s="1" t="s">
         <v>3</v>
       </c>
@@ -17484,7 +17831,7 @@
       </c>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="27:33" ht="15">
+    <row r="152" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA152" s="1"/>
       <c r="AB152" s="1" t="s">
         <v>42</v>
@@ -17501,7 +17848,7 @@
       </c>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="27:33" ht="15">
+    <row r="153" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA153" s="1"/>
       <c r="AB153" s="1" t="s">
         <v>43</v>
@@ -17518,7 +17865,7 @@
       </c>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="27:33" ht="15">
+    <row r="154" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA154" s="1" t="s">
         <v>4</v>
       </c>
@@ -17539,7 +17886,7 @@
       </c>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="27:33" ht="15">
+    <row r="155" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA155" s="1"/>
       <c r="AB155" s="1" t="s">
         <v>42</v>
@@ -17556,7 +17903,7 @@
       </c>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="27:33" ht="15">
+    <row r="156" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA156" s="1"/>
       <c r="AB156" s="1" t="s">
         <v>43</v>
@@ -17573,7 +17920,7 @@
       </c>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="27:33" ht="15">
+    <row r="157" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA157" s="1" t="s">
         <v>5</v>
       </c>
@@ -17594,7 +17941,7 @@
       </c>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="27:33" ht="15">
+    <row r="158" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA158" s="1"/>
       <c r="AB158" s="1" t="s">
         <v>42</v>
@@ -17611,7 +17958,7 @@
       </c>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="27:33" ht="15">
+    <row r="159" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA159" s="1"/>
       <c r="AB159" s="1" t="s">
         <v>43</v>
@@ -17628,7 +17975,7 @@
       </c>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="27:33" ht="15">
+    <row r="160" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA160" s="1" t="s">
         <v>6</v>
       </c>
@@ -17649,7 +17996,7 @@
       </c>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="27:33" ht="15">
+    <row r="161" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA161" s="1"/>
       <c r="AB161" s="1" t="s">
         <v>42</v>
@@ -17666,7 +18013,7 @@
       </c>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="27:33" ht="15">
+    <row r="162" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA162" s="1"/>
       <c r="AB162" s="1" t="s">
         <v>43</v>
@@ -17683,7 +18030,7 @@
       </c>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="27:33" ht="15">
+    <row r="163" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA163" s="1" t="s">
         <v>7</v>
       </c>
@@ -17704,7 +18051,7 @@
       </c>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="27:33" ht="15">
+    <row r="164" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA164" s="1"/>
       <c r="AB164" s="1" t="s">
         <v>42</v>
@@ -17721,7 +18068,7 @@
       </c>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="27:33" ht="15">
+    <row r="165" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA165" s="1"/>
       <c r="AB165" s="1" t="s">
         <v>43</v>
@@ -17738,7 +18085,7 @@
       </c>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="27:33" ht="15">
+    <row r="166" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA166" s="1" t="s">
         <v>8</v>
       </c>
@@ -17759,7 +18106,7 @@
       </c>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="27:33" ht="15">
+    <row r="167" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA167" s="1"/>
       <c r="AB167" s="1" t="s">
         <v>42</v>
@@ -17776,7 +18123,7 @@
       </c>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="27:33" ht="15">
+    <row r="168" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA168" s="1"/>
       <c r="AB168" s="1" t="s">
         <v>43</v>
@@ -17793,7 +18140,7 @@
       </c>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="27:33" ht="15">
+    <row r="169" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA169" s="1" t="s">
         <v>9</v>
       </c>
@@ -17814,7 +18161,7 @@
       </c>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="27:33" ht="15">
+    <row r="170" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA170" s="1"/>
       <c r="AB170" s="1" t="s">
         <v>42</v>
@@ -17831,7 +18178,7 @@
       </c>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="27:33" ht="15">
+    <row r="171" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA171" s="1"/>
       <c r="AB171" s="1" t="s">
         <v>43</v>
@@ -17848,7 +18195,7 @@
       </c>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="27:33" ht="15">
+    <row r="172" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA172" s="1" t="s">
         <v>10</v>
       </c>
@@ -17869,7 +18216,7 @@
       </c>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="27:33" ht="15">
+    <row r="173" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA173" s="1"/>
       <c r="AB173" s="1" t="s">
         <v>42</v>
@@ -17886,7 +18233,7 @@
       </c>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="27:33" ht="15">
+    <row r="174" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA174" s="1"/>
       <c r="AB174" s="1" t="s">
         <v>43</v>
@@ -17903,7 +18250,7 @@
       </c>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="27:33" ht="15">
+    <row r="175" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA175" s="1" t="s">
         <v>11</v>
       </c>
@@ -17924,7 +18271,7 @@
       </c>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="27:33" ht="15">
+    <row r="176" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA176" s="1"/>
       <c r="AB176" s="1" t="s">
         <v>42</v>
@@ -17941,7 +18288,7 @@
       </c>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="27:33" ht="15">
+    <row r="177" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA177" s="1"/>
       <c r="AB177" s="1" t="s">
         <v>43</v>
@@ -17958,7 +18305,7 @@
       </c>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="27:33" ht="15">
+    <row r="178" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA178" s="1" t="s">
         <v>12</v>
       </c>
@@ -17979,7 +18326,7 @@
       </c>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="27:33" ht="15">
+    <row r="179" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA179" s="1"/>
       <c r="AB179" s="1" t="s">
         <v>42</v>
@@ -17996,7 +18343,7 @@
       </c>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="27:33" ht="15">
+    <row r="180" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA180" s="1"/>
       <c r="AB180" s="1" t="s">
         <v>43</v>
@@ -18013,7 +18360,7 @@
       </c>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="27:33" ht="15">
+    <row r="181" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA181" s="1" t="s">
         <v>14</v>
       </c>
@@ -18034,7 +18381,7 @@
       </c>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="27:33" ht="15">
+    <row r="182" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA182" s="1"/>
       <c r="AB182" s="1" t="s">
         <v>42</v>
@@ -18051,7 +18398,7 @@
       </c>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="27:33" ht="15">
+    <row r="183" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA183" s="1"/>
       <c r="AB183" s="1" t="s">
         <v>43</v>
@@ -18068,7 +18415,7 @@
       </c>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="27:33" ht="15">
+    <row r="184" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA184" s="1" t="s">
         <v>15</v>
       </c>
@@ -18089,7 +18436,7 @@
       </c>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="27:33" ht="15">
+    <row r="185" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA185" s="1"/>
       <c r="AB185" s="1" t="s">
         <v>42</v>
@@ -18106,7 +18453,7 @@
       </c>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="27:33" ht="15">
+    <row r="186" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA186" s="1"/>
       <c r="AB186" s="1" t="s">
         <v>43</v>
@@ -18123,7 +18470,7 @@
       </c>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="27:33" ht="15">
+    <row r="187" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA187" s="1" t="s">
         <v>16</v>
       </c>
@@ -18144,7 +18491,7 @@
       </c>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="27:33" ht="15">
+    <row r="188" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA188" s="1"/>
       <c r="AB188" s="1" t="s">
         <v>42</v>
@@ -18161,7 +18508,7 @@
       </c>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="27:33" ht="15">
+    <row r="189" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA189" s="1"/>
       <c r="AB189" s="1" t="s">
         <v>43</v>
@@ -18178,7 +18525,7 @@
       </c>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="27:33" ht="15">
+    <row r="190" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA190" s="1" t="s">
         <v>17</v>
       </c>
@@ -18199,7 +18546,7 @@
       </c>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="27:33" ht="15">
+    <row r="191" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA191" s="1"/>
       <c r="AB191" s="1" t="s">
         <v>42</v>
@@ -18216,7 +18563,7 @@
       </c>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="27:33" ht="15">
+    <row r="192" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA192" s="1"/>
       <c r="AB192" s="1" t="s">
         <v>43</v>
@@ -18233,7 +18580,7 @@
       </c>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="27:33" ht="15">
+    <row r="193" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA193" s="1" t="s">
         <v>18</v>
       </c>
@@ -18254,7 +18601,7 @@
       </c>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="27:33" ht="15">
+    <row r="194" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA194" s="1"/>
       <c r="AB194" s="1" t="s">
         <v>42</v>
@@ -18271,7 +18618,7 @@
       </c>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="27:33" ht="15">
+    <row r="195" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA195" s="1"/>
       <c r="AB195" s="1" t="s">
         <v>43</v>
@@ -18288,7 +18635,7 @@
       </c>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="27:33" ht="15">
+    <row r="196" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA196" s="1" t="s">
         <v>19</v>
       </c>
@@ -18309,7 +18656,7 @@
       </c>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="27:33" ht="15">
+    <row r="197" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA197" s="1"/>
       <c r="AB197" s="1" t="s">
         <v>42</v>
@@ -18326,7 +18673,7 @@
       </c>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="27:33" ht="15">
+    <row r="198" spans="27:33" ht="15" x14ac:dyDescent="0.15">
       <c r="AA198" s="1"/>
       <c r="AB198" s="1" t="s">
         <v>43</v>
@@ -18365,14 +18712,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.125" customWidth="1"/>
+    <col min="6" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
+        <v>2</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
+        <v>3</v>
+      </c>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="39">
+        <v>562.90049999999997</v>
+      </c>
+      <c r="C4" s="39">
+        <v>900</v>
+      </c>
+      <c r="D4" s="39">
+        <v>200</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
+        <v>537.94820000000004</v>
+      </c>
+      <c r="G4" s="39">
+        <v>900</v>
+      </c>
+      <c r="H4" s="39">
+        <v>200</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="39">
+        <v>612.16920000000005</v>
+      </c>
+      <c r="K4" s="39">
+        <v>900</v>
+      </c>
+      <c r="L4" s="39">
+        <v>200</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="39">
+        <v>587.1386</v>
+      </c>
+      <c r="O4" s="39">
+        <v>900</v>
+      </c>
+      <c r="P4" s="39">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="39">
+        <v>12.04823</v>
+      </c>
+      <c r="C5" s="39">
+        <v>241.8</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39">
+        <v>4.2919289999999997</v>
+      </c>
+      <c r="G5" s="39">
+        <v>9.9</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="39">
+        <v>19.88083</v>
+      </c>
+      <c r="K5" s="39">
+        <v>49.9</v>
+      </c>
+      <c r="L5" s="39">
+        <v>10</v>
+      </c>
+      <c r="M5" s="40"/>
+      <c r="N5" s="39">
+        <v>73.347710000000006</v>
+      </c>
+      <c r="O5" s="39">
+        <v>241.8</v>
+      </c>
+      <c r="P5" s="39">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="39">
+        <v>10.99042</v>
+      </c>
+      <c r="C6" s="39">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39">
+        <v>13.78706</v>
+      </c>
+      <c r="G6" s="39">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="39">
+        <v>6.2394420000000004</v>
+      </c>
+      <c r="K6" s="39">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="L6" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="39">
+        <v>2.7335250000000002</v>
+      </c>
+      <c r="O6" s="39">
+        <v>14</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0.65</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="39">
+        <v>10.873089999999999</v>
+      </c>
+      <c r="C7" s="39">
+        <v>57.143859999999997</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <v>13.662570000000001</v>
+      </c>
+      <c r="G7" s="39">
+        <v>57.143859999999997</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39">
+        <v>6.134029</v>
+      </c>
+      <c r="K7" s="39">
+        <v>57.143859999999997</v>
+      </c>
+      <c r="L7" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="39">
+        <v>2.638995</v>
+      </c>
+      <c r="O7" s="39">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0.23743510000000001</v>
+      </c>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="39">
+        <v>0.119336</v>
+      </c>
+      <c r="C8" s="39">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39">
+        <v>0.12649160000000001</v>
+      </c>
+      <c r="G8" s="39">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39">
+        <v>0.1074138</v>
+      </c>
+      <c r="K8" s="39">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="L8" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39">
+        <v>9.6530299999999999E-2</v>
+      </c>
+      <c r="O8" s="39">
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="P8" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="39">
+        <v>159.3768</v>
+      </c>
+      <c r="C9" s="39">
+        <v>400.00099999999998</v>
+      </c>
+      <c r="D9" s="39">
+        <v>37.500999999999998</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <v>158.55260000000001</v>
+      </c>
+      <c r="G9" s="39">
+        <v>400.00099999999998</v>
+      </c>
+      <c r="H9" s="39">
+        <v>37.500999999999998</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="39">
+        <v>164.36850000000001</v>
+      </c>
+      <c r="K9" s="39">
+        <v>400.00099999999998</v>
+      </c>
+      <c r="L9" s="39">
+        <v>37.500999999999998</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="39">
+        <v>136.00399999999999</v>
+      </c>
+      <c r="O9" s="39">
+        <v>339.87439999999998</v>
+      </c>
+      <c r="P9" s="39">
+        <v>37.500999999999998</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="39">
+        <v>67.428479999999993</v>
+      </c>
+      <c r="C10" s="39">
+        <v>281.81920000000002</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39">
+        <v>64.610150000000004</v>
+      </c>
+      <c r="G10" s="39">
+        <v>281.81920000000002</v>
+      </c>
+      <c r="H10" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="39">
+        <v>73.199150000000003</v>
+      </c>
+      <c r="K10" s="39">
+        <v>281.81920000000002</v>
+      </c>
+      <c r="L10" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39">
+        <v>68.687129999999996</v>
+      </c>
+      <c r="O10" s="39">
+        <v>230.001</v>
+      </c>
+      <c r="P10" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="39">
+        <v>104.9037</v>
+      </c>
+      <c r="C11" s="39">
+        <v>194.40100000000001</v>
+      </c>
+      <c r="D11" s="39">
+        <v>48.889890000000001</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39">
+        <v>108.6352</v>
+      </c>
+      <c r="G11" s="39">
+        <v>194.40100000000001</v>
+      </c>
+      <c r="H11" s="39">
+        <v>48.889890000000001</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="39">
+        <v>99.025099999999995</v>
+      </c>
+      <c r="K11" s="39">
+        <v>194.40100000000001</v>
+      </c>
+      <c r="L11" s="39">
+        <v>48.889890000000001</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="39">
+        <v>90.576949999999997</v>
+      </c>
+      <c r="O11" s="39">
+        <v>194.40100000000001</v>
+      </c>
+      <c r="P11" s="39">
+        <v>48.889890000000001</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="39">
+        <v>80.602019999999996</v>
+      </c>
+      <c r="C12" s="39">
+        <v>330.00099999999998</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39">
+        <v>84.253579999999999</v>
+      </c>
+      <c r="G12" s="39">
+        <v>330.00099999999998</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="39">
+        <v>77.359480000000005</v>
+      </c>
+      <c r="K12" s="39">
+        <v>330.00099999999998</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="39">
+        <v>48.54589</v>
+      </c>
+      <c r="O12" s="39">
+        <v>330.00099999999998</v>
+      </c>
+      <c r="P12" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="39">
+        <v>0.18399689999999999</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39">
+        <v>0.12606709999999999</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39">
+        <v>0</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="39">
+        <v>0.28924870000000003</v>
+      </c>
+      <c r="K13" s="39">
+        <v>1</v>
+      </c>
+      <c r="L13" s="39">
+        <v>0</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39">
+        <v>0.3058824</v>
+      </c>
+      <c r="O13" s="39">
+        <v>1</v>
+      </c>
+      <c r="P13" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="39">
+        <v>3.677559</v>
+      </c>
+      <c r="C14" s="39">
+        <v>90</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
+        <v>2.092905</v>
+      </c>
+      <c r="G14" s="39">
+        <v>69</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="39">
+        <v>5.5308760000000001</v>
+      </c>
+      <c r="K14" s="39">
+        <v>45</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="39">
+        <v>14.382860000000001</v>
+      </c>
+      <c r="O14" s="39">
+        <v>90</v>
+      </c>
+      <c r="P14" s="39">
+        <v>3.0833330000000001</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="39">
+        <v>0.74395610000000001</v>
+      </c>
+      <c r="C15" s="39">
+        <v>2</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39">
+        <v>0.73873040000000001</v>
+      </c>
+      <c r="G15" s="39">
+        <v>2</v>
+      </c>
+      <c r="H15" s="39">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39">
+        <v>0.75504349999999998</v>
+      </c>
+      <c r="K15" s="39">
+        <v>2</v>
+      </c>
+      <c r="L15" s="39">
+        <v>0</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39">
+        <v>0.74350609999999995</v>
+      </c>
+      <c r="O15" s="39">
+        <v>2</v>
+      </c>
+      <c r="P15" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="39"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="39">
+        <v>0.55694589999999999</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39">
+        <v>0.64982169999999995</v>
+      </c>
+      <c r="G16" s="39">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="39">
+        <v>0.41356270000000001</v>
+      </c>
+      <c r="K16" s="39">
+        <v>0.99431840000000005</v>
+      </c>
+      <c r="L16" s="39">
+        <v>0</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="39">
+        <v>0.1792936</v>
+      </c>
+      <c r="O16" s="39">
+        <v>0.94969190000000003</v>
+      </c>
+      <c r="P16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="39">
+        <v>0.57433230000000002</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39">
+        <v>0.57109600000000005</v>
+      </c>
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39">
+        <v>0.58832090000000004</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1</v>
+      </c>
+      <c r="L17" s="39">
+        <v>0</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="39">
+        <v>0.5228758</v>
+      </c>
+      <c r="O17" s="39">
+        <v>1</v>
+      </c>
+      <c r="P17" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="39">
+        <v>52.440469999999998</v>
+      </c>
+      <c r="C18" s="39">
+        <v>74</v>
+      </c>
+      <c r="D18" s="39">
+        <v>30</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39">
+        <v>53.200060000000001</v>
+      </c>
+      <c r="G18" s="39">
+        <v>74</v>
+      </c>
+      <c r="H18" s="39">
+        <v>30</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="39">
+        <v>51.305340000000001</v>
+      </c>
+      <c r="K18" s="39">
+        <v>74</v>
+      </c>
+      <c r="L18" s="39">
+        <v>30</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="39">
+        <v>49.082030000000003</v>
+      </c>
+      <c r="O18" s="39">
+        <v>69</v>
+      </c>
+      <c r="P18" s="39">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="39">
+        <v>7.1577520000000003</v>
+      </c>
+      <c r="C19" s="39">
+        <v>16</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
+        <v>7.123024</v>
+      </c>
+      <c r="G19" s="39">
+        <v>15</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="39">
+        <v>7.2234740000000004</v>
+      </c>
+      <c r="K19" s="39">
+        <v>15</v>
+      </c>
+      <c r="L19" s="39">
+        <v>0</v>
+      </c>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
+        <v>7.2119739999999997</v>
+      </c>
+      <c r="O19" s="39">
+        <v>16</v>
+      </c>
+      <c r="P19" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="39">
+        <v>7.9287800000000005E-2</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39">
+        <v>7.3726E-2</v>
+      </c>
+      <c r="G20" s="39">
+        <v>1</v>
+      </c>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="39">
+        <v>9.0594900000000006E-2</v>
+      </c>
+      <c r="K20" s="39">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39">
+        <v>8.2352900000000007E-2</v>
+      </c>
+      <c r="O20" s="39">
+        <v>1</v>
+      </c>
+      <c r="P20" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="39">
+        <v>4.2782910000000003</v>
+      </c>
+      <c r="C21" s="39">
+        <v>5</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39">
+        <v>4.2378200000000001</v>
+      </c>
+      <c r="G21" s="39">
+        <v>5</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="39">
+        <v>4.3538290000000002</v>
+      </c>
+      <c r="K21" s="39">
+        <v>5</v>
+      </c>
+      <c r="L21" s="39">
+        <v>1</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39">
+        <v>4.3490200000000003</v>
+      </c>
+      <c r="O21" s="39">
+        <v>5</v>
+      </c>
+      <c r="P21" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0.1767176</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37">
+        <v>0.19272230000000001</v>
+      </c>
+      <c r="G22" s="37">
+        <v>1</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0.1448063</v>
+      </c>
+      <c r="K22" s="37">
+        <v>1</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37">
+        <v>0.16339870000000001</v>
+      </c>
+      <c r="O22" s="37">
+        <v>1</v>
+      </c>
+      <c r="P22" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18381,22 +19811,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>76</v>
       </c>
@@ -18424,7 +19854,7 @@
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
@@ -18487,7 +19917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
@@ -18528,7 +19958,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -18568,7 +19998,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -18610,7 +20040,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -18654,7 +20084,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -18700,7 +20130,7 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -18748,7 +20178,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -18798,7 +20228,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -18850,7 +20280,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -18904,7 +20334,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -18960,7 +20390,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -19018,7 +20448,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
@@ -19078,7 +20508,7 @@
       </c>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
@@ -19140,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -19160,7 +20590,7 @@
         <v>0.93284100000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -19180,7 +20610,7 @@
         <v>0.95877000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -19200,7 +20630,7 @@
         <v>0.96345899999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -19220,7 +20650,7 @@
         <v>0.97923700000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -19240,7 +20670,7 @@
         <v>0.99199599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -19258,7 +20688,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19269,7 +20699,7 @@
         <v>0.81200799999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -19280,7 +20710,7 @@
         <v>0.82168200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -19291,7 +20721,7 @@
         <v>0.890042</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19302,7 +20732,7 @@
         <v>0.89580700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -19313,7 +20743,7 @@
         <v>0.92589200000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -19324,7 +20754,7 @@
         <v>0.93245100000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
@@ -19335,7 +20765,7 @@
         <v>0.94689599999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -19346,7 +20776,7 @@
         <v>0.976877</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -19357,7 +20787,7 @@
         <v>0.98993100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
@@ -19378,13 +20808,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19392,22 +20822,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="4.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:17" ht="15">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="33" t="s">
         <v>125</v>
       </c>
@@ -19418,7 +20848,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="15">
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
         <v>94</v>
       </c>
@@ -19430,7 +20860,7 @@
       <c r="G22" s="30"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="15">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>66</v>
       </c>
@@ -19462,7 +20892,7 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -19494,7 +20924,7 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
     </row>
-    <row r="25" spans="1:17" ht="15">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -19538,7 +20968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -19582,7 +21012,7 @@
         <v>8.2908499999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -19626,7 +21056,7 @@
         <v>-8.5249999999999996E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -19670,7 +21100,7 @@
         <v>1.44251E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -19714,7 +21144,7 @@
         <v>0.3406961</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -19758,7 +21188,7 @@
         <v>2.5293199999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -19802,7 +21232,7 @@
         <v>0.38669609999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -19846,7 +21276,7 @@
         <v>1.3736399999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15">
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
@@ -19890,7 +21320,7 @@
         <v>3.2337299999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15">
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
@@ -19934,7 +21364,7 @@
         <v>5.1256000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15">
+    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>80</v>
       </c>
@@ -19978,7 +21408,7 @@
         <v>3.4944900000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15">
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>56</v>
       </c>
@@ -20022,7 +21452,7 @@
         <v>1.8889300000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15">
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -20066,7 +21496,7 @@
         <v>1.6620999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15">
+    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -20110,7 +21540,7 @@
         <v>1.06328E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15">
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -20154,7 +21584,7 @@
         <v>2.4420000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15">
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -20198,7 +21628,7 @@
         <v>-1.59843E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15">
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -20242,7 +21672,7 @@
         <v>4.3923E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15">
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
@@ -20286,7 +21716,7 @@
         <v>7.5684999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -20330,7 +21760,7 @@
         <v>1.0326999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
@@ -20374,7 +21804,7 @@
         <v>4.6515000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15">
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -20418,7 +21848,7 @@
         <v>-2.2434999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -20462,7 +21892,7 @@
         <v>4.16966E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -20506,7 +21936,7 @@
         <v>4.0603000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
@@ -20550,7 +21980,7 @@
         <v>2.1549200000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15">
+    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
@@ -20594,7 +22024,7 @@
         <v>4.1520000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15">
+    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -20638,7 +22068,7 @@
         <v>-2.3863200000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15">
+    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -20682,7 +22112,7 @@
         <v>3.54106E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15">
+    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>84</v>
       </c>
@@ -20714,7 +22144,7 @@
         <v>-3.8095999999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15">
+    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>14</v>
       </c>
@@ -20758,7 +22188,7 @@
         <v>4.5659999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15">
+    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>15</v>
       </c>
@@ -20790,7 +22220,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" ht="15">
+    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>21</v>
       </c>
@@ -20834,7 +22264,7 @@
         <v>1.3674199999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15">
+    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>22</v>
       </c>
@@ -20878,7 +22308,7 @@
         <v>2.2479000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15">
+    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>23</v>
       </c>
@@ -20922,7 +22352,7 @@
         <v>1.4960599999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15">
+    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -20966,7 +22396,7 @@
         <v>2.3562000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15">
+    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -21010,7 +22440,7 @@
         <v>5.2120629999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15">
+    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>64</v>
       </c>
@@ -21044,7 +22474,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" ht="15">
+    <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>65</v>
       </c>
@@ -21078,7 +22508,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" ht="15">
+    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>85</v>
       </c>
@@ -21102,7 +22532,7 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="15">
+    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>2012</v>
       </c>
@@ -21125,7 +22555,7 @@
         <v>1.5628199999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15">
+    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>2013</v>
       </c>
@@ -21148,7 +22578,7 @@
         <v>4.2388E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>2014</v>
       </c>
@@ -21171,7 +22601,7 @@
         <v>2.0679800000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>2015</v>
       </c>
@@ -21194,7 +22624,7 @@
         <v>8.8486999999999993E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>86</v>
       </c>
@@ -21217,7 +22647,7 @@
         <v>5.9873729999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -21233,7 +22663,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>92</v>
       </c>
@@ -21246,7 +22676,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="15">
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
         <v>93</v>
       </c>
@@ -21259,18 +22689,18 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="72" spans="1:10" ht="15">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J84" s="31" t="s">
         <v>112</v>
       </c>
       <c r="K84" s="31"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="J85" s="13">
         <v>-1</v>
       </c>
@@ -21279,7 +22709,7 @@
       </c>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="28" t="s">
         <v>128</v>
       </c>
@@ -21297,7 +22727,7 @@
       </c>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>94</v>
       </c>
@@ -21315,7 +22745,7 @@
       </c>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>66</v>
       </c>
@@ -21345,7 +22775,7 @@
       </c>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>60</v>
       </c>
@@ -21375,7 +22805,7 @@
       </c>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
@@ -21405,7 +22835,7 @@
       </c>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>55</v>
       </c>
@@ -21435,7 +22865,7 @@
       </c>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>51</v>
       </c>
@@ -21465,7 +22895,7 @@
       </c>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>53</v>
       </c>
@@ -21495,7 +22925,7 @@
       </c>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>47</v>
       </c>
@@ -21525,7 +22955,7 @@
       </c>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>58</v>
       </c>
@@ -21553,7 +22983,7 @@
       </c>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -21581,7 +23011,7 @@
       </c>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>61</v>
       </c>
@@ -21604,7 +23034,7 @@
         <v>3.0977999999999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15">
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>48</v>
       </c>
@@ -21633,7 +23063,7 @@
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
     </row>
-    <row r="99" spans="1:13" ht="15">
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>79</v>
       </c>
@@ -21664,7 +23094,7 @@
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
     </row>
-    <row r="100" spans="1:13" ht="15">
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>80</v>
       </c>
@@ -21695,7 +23125,7 @@
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>56</v>
       </c>
@@ -21726,7 +23156,7 @@
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
     </row>
-    <row r="102" spans="1:13" ht="15">
+    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>81</v>
       </c>
@@ -21757,7 +23187,7 @@
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" ht="15">
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>82</v>
       </c>
@@ -21786,7 +23216,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" ht="15">
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>83</v>
       </c>
@@ -21813,7 +23243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15">
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -21836,7 +23266,7 @@
         <v>1.4908899999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>15</v>
       </c>
@@ -21859,7 +23289,7 @@
         <v>1.4752000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15">
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>16</v>
       </c>
@@ -21882,7 +23312,7 @@
         <v>5.5824999999999998E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>17</v>
       </c>
@@ -21905,7 +23335,7 @@
         <v>1.6345000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>18</v>
       </c>
@@ -21928,7 +23358,7 @@
         <v>3.1620799999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>19</v>
       </c>
@@ -21951,7 +23381,7 @@
         <v>1.3064900000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
@@ -21974,7 +23404,7 @@
         <v>-1.1115000000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15">
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>10</v>
       </c>
@@ -21997,7 +23427,7 @@
         <v>-2.6456000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>64</v>
       </c>
@@ -22020,7 +23450,7 @@
         <v>-6.5762299999999996E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>62</v>
       </c>
@@ -22043,7 +23473,7 @@
         <v>2.2884499999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>12</v>
       </c>
@@ -22066,7 +23496,7 @@
         <v>3.72146E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>63</v>
       </c>
@@ -22089,7 +23519,7 @@
         <v>-7.4169999999999998E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>85</v>
       </c>
@@ -22100,7 +23530,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>2012</v>
       </c>
@@ -22123,7 +23553,7 @@
         <v>3.9079299999999997E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>2013</v>
       </c>
@@ -22146,7 +23576,7 @@
         <v>3.3656499999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>2014</v>
       </c>
@@ -22169,7 +23599,7 @@
         <v>4.4693700000000003E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>2015</v>
       </c>
@@ -22192,7 +23622,7 @@
         <v>3.4747699999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>86</v>
       </c>
@@ -22215,7 +23645,7 @@
         <v>5.7756100000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15">
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>96</v>
       </c>
@@ -22228,7 +23658,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>97</v>
       </c>
@@ -22241,7 +23671,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" ht="15">
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>

--- a/回归结果/single玉米.xlsx
+++ b/回归结果/single玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId6"/>
     <sheet name="回归结果" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">回归结果!$A$21:$G$70</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="324">
   <si>
     <t>yield</t>
   </si>
@@ -1281,10 +1282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1846,6 +1843,10 @@
   <si>
     <t>样本数量</t>
   </si>
+  <si>
+    <t>单产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2297,6 +2298,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2307,9 +2311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8830,7 +8831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yield</c:v>
+                  <c:v>单产</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10919,7 +10920,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -10929,7 +10930,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -10962,7 +10963,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -11026,7 +11027,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -11036,7 +11037,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -11046,7 +11047,7 @@
                   <a:t>单产（千克</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -11056,7 +11057,7 @@
                   <a:t>/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -11089,7 +11090,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -11152,7 +11153,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -11162,16 +11163,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   </a:rPr>
-                  <a:t>产出弹性</a:t>
+                  <a:t>规模弹性</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -11202,7 +11203,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -11274,6 +11275,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27099702495819999"/>
+          <c:y val="0.69453376205787787"/>
+          <c:w val="0.33996633337605986"/>
+          <c:h val="7.5064266484374337E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11959,6 +11998,1435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$8:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$F$8:$F$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="193"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1879161416818029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2940622193079729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.365786504305802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4186379750129481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4596620083370386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4926369279020413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5198163072746074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.542647392249443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5621117777836662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5789038730763747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5935316757319333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6063771213299942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6177339789740943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6278325961611431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.636856596059616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6449544643424168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6522477863477369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6588372276618504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6648069576228752</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6702279754404803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6751606482243775</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6796566734290643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6837606144947688</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6875111156299751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6909418723483562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6940824139437169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6969587396369508</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6995938397631976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7020081258338422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7042197877667329</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7062450924565489</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.708098634760058</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7097935496209951</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.711341692260171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7127537919674214</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.714039583951142</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7152079228538626</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7162668808734303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7172238328978746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7180855306370766</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7188581673925531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7195474348302617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.720158572896572</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7206964138338874</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7211654211016283</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7215697238838958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.721913147762109</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7221992420452092</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7224313041784285</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7226124015916318</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7227453912977426</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7228329375091365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7228775275037755</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7228814859421651</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7228469878100505</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7227760701394006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7226706426410399</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7225324973657989</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7223633174968327</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7221646853634642</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7219380897562573</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7216849326137846</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7214065351434817</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7211041434319785</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7207789335941353</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7204320165046332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7200644421512539</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7196772036448027</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7192712409169886</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7188474441343224</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7184066568532366</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7179496789390993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7174772692695308</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.716990148240445</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7164890000914401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.715974475065585</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7154471914172162</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7149077372801078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7143566724072108</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7137945297921682</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7132218171818727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.712639018488519</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7120465951088513</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7114449871576582</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7108346146219264</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7102158784415535</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7095891615220018</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.708954829683839</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7083132325536976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7076647044008191</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7070095649230141</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7063481199855628</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7056806623162972</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7050074721598647</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7043288178939291</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7036449566098562</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7029561346602458</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7022625881754858</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7015645435513405</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7008622179094486</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7001558195324606</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6994455482754123</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6987315959548417</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6980141467170187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6972933773865859</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6965694577968009</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6958425511024988</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6951128140768137</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6943803973926219</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6936454458896146</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6929080988278398</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6921684901284988</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6914267486027359</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.6906829981691001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6899373580603303</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6891899430200592</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.688440863489999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6876902257881401</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.686938132278452</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6861846815325532</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6854299684837841</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6846740845740917</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6839171178941088</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.6831591533167876</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6824002726249294</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6816405546329267</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.6808800753030151</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.6801189078563263</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6793571228789967</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.6785947884235914</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.6778319701060727</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.6770687311985442</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6763051327179732</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.675541233511092</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.674777090335668</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.6740127579383173</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6732482891290308</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.672483734852565</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6717191442568609</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6709545647586128</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.670190042106142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.6694256204396829</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.6686613423492189</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.6678972489299657</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.6671333798356263</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.6663697733295033</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.6656064663335823</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.6648434944756614</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.6640808921346304</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.6633186924839705</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.6625569275335588</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.6617956281698549</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.6610348241945307</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.6602745443616251</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.6595148164132749</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.6587556671140926</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.6579971222842442</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.657239206831282</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.6564819447807888</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6557253593058827</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.6549694727556277</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6542143066823958</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.6534598818682309</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6527062183502459</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.651953335445099</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.6512012517725863</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6504499852783845</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6496995532559795</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6489499723678143</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.6482012586656831</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.6474534276104105</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.6467064940908334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.6459604724421233</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.6452153764634638</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.6444712194351225</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.6437280141349251</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.6429857728541686</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.6422445074129866</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.6415042291751905</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.6407649490626071</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.6400266775689318</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.6392894247731125</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.6385532003522865</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.6378180135942859</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.6370838734097222</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.6363507883436763</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.6356187665869977</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.6348878159872322</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.6341579440591942</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.6334291579951921</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.6327014646749194</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.6319748706750286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B0-4B88-8A45-5BDCD523A352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="517585208"/>
+        <c:axId val="517585536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="517585208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517585536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="517585536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517585208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12120,6 +13588,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14739,6 +16247,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -15298,6 +17322,41 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15874,7 +17933,7 @@
   <dimension ref="A1:AS198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15947,57 +18006,29 @@
         <v>30</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3">
-        <v>2</v>
-      </c>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
+        <v>3</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="82"/>
@@ -16011,128 +18042,44 @@
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7">
-        <v>537.94820000000004</v>
+        <v>562.90049999999997</v>
       </c>
       <c r="D4" s="7">
         <v>900</v>
@@ -16140,257 +18087,89 @@
       <c r="E4" s="7">
         <v>200</v>
       </c>
-      <c r="F4" s="7">
-        <v>400</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="7">
-        <v>500</v>
+        <v>537.94820000000004</v>
       </c>
       <c r="H4" s="7">
-        <v>666.66660000000002</v>
+        <v>900</v>
       </c>
       <c r="I4" s="7">
-        <v>0.109102</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2.3510490000000002</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7">
-        <v>170.2064</v>
+        <v>612.16920000000005</v>
       </c>
       <c r="L4" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>612.16920000000005</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="M4" s="7">
+        <v>200</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
+        <v>587.1386</v>
+      </c>
+      <c r="P4" s="7">
         <v>900</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <v>200</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>500</v>
-      </c>
-      <c r="R4" s="7">
-        <v>600</v>
-      </c>
-      <c r="S4" s="7">
-        <v>725</v>
-      </c>
-      <c r="T4" s="7">
-        <v>-0.18650700000000001</v>
-      </c>
-      <c r="U4" s="7">
-        <v>2.5716920000000001</v>
-      </c>
-      <c r="V4" s="7">
-        <v>147.6566</v>
-      </c>
-      <c r="W4" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7">
-        <v>587.1386</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>900</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>500</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>618.66669999999999</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>666.66669999999999</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>-0.45771250000000002</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>3.0629089999999999</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>136.36519999999999</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7">
-        <v>562.90049999999997</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>900</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>200</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>450.10180000000003</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>550</v>
-      </c>
-      <c r="AO4" s="7">
-        <v>700</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>-4.7448999999999998E-2</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>2.3805179999999999</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>165.81270000000001</v>
-      </c>
-      <c r="AS4" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7">
-        <v>4.2919289999999997</v>
+        <v>12.04823</v>
       </c>
       <c r="D5" s="7">
-        <v>9.9</v>
+        <v>241.8</v>
       </c>
       <c r="E5" s="7">
         <v>0.1</v>
       </c>
-      <c r="F5" s="7">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="7">
-        <v>4</v>
+        <v>4.2919289999999997</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="I5" s="7">
-        <v>0.35076970000000002</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.1454240000000002</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7">
-        <v>2.4323389999999998</v>
+        <v>19.88083</v>
       </c>
       <c r="L5" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>19.88083</v>
-      </c>
+        <v>49.9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
-        <v>49.9</v>
+        <v>73.347710000000006</v>
       </c>
       <c r="P5" s="7">
-        <v>10</v>
+        <v>241.8</v>
       </c>
       <c r="Q5" s="7">
-        <v>12</v>
-      </c>
-      <c r="R5" s="7">
-        <v>16</v>
-      </c>
-      <c r="S5" s="7">
-        <v>25</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1.158326</v>
-      </c>
-      <c r="U5" s="7">
-        <v>3.3672249999999999</v>
-      </c>
-      <c r="V5" s="7">
-        <v>10.092969999999999</v>
-      </c>
-      <c r="W5" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7">
-        <v>73.347710000000006</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>241.8</v>
-      </c>
-      <c r="AA5" s="7">
         <v>50</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>67</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>90</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>2.0843470000000002</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>10.539400000000001</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>22.170169999999999</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7">
-        <v>12.04823</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>241.8</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="AO5" s="7">
-        <v>13</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>3.411073</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>19.3459</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>16.587409999999998</v>
-      </c>
-      <c r="AS5" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="7">
-        <v>13.78706</v>
+        <v>10.99042</v>
       </c>
       <c r="D6" s="7">
         <v>57.142859999999999</v>
@@ -16398,128 +18177,44 @@
       <c r="E6" s="7">
         <v>0.65</v>
       </c>
-      <c r="F6" s="7">
-        <v>6.3157899999999998</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="7">
-        <v>10</v>
+        <v>13.78706</v>
       </c>
       <c r="H6" s="7">
-        <v>18.25</v>
+        <v>57.142859999999999</v>
       </c>
       <c r="I6" s="7">
-        <v>1.8537710000000001</v>
-      </c>
-      <c r="J6" s="7">
-        <v>7.1042319999999997</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7">
-        <v>10.764419999999999</v>
+        <v>6.2394420000000004</v>
       </c>
       <c r="L6" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>6.2394420000000004</v>
-      </c>
+        <v>57.142859999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <v>57.142859999999999</v>
+        <v>2.7335250000000002</v>
       </c>
       <c r="P6" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7">
         <v>0.65</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="R6" s="7">
-        <v>5</v>
-      </c>
-      <c r="S6" s="7">
-        <v>8.875</v>
-      </c>
-      <c r="T6" s="7">
-        <v>2.6435399999999998</v>
-      </c>
-      <c r="U6" s="7">
-        <v>19.58287</v>
-      </c>
-      <c r="V6" s="7">
-        <v>5.0841450000000004</v>
-      </c>
-      <c r="W6" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7">
-        <v>2.7335250000000002</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>1.3043480000000001</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>4.0106950000000001</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>1.5015750000000001</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>4.3557600000000001</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>2.85161</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7">
-        <v>10.99042</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>57.142859999999999</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>4.2105259999999998</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>8.3333340000000007</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>14.871790000000001</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>2.1240250000000001</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>8.8484459999999991</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>9.9243170000000003</v>
-      </c>
-      <c r="AS6" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7">
-        <v>13.662570000000001</v>
+        <v>10.873089999999999</v>
       </c>
       <c r="D7" s="7">
         <v>57.143859999999997</v>
@@ -16527,128 +18222,44 @@
       <c r="E7" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="7">
-        <v>6.1343329999999998</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="7">
-        <v>10.000999999999999</v>
+        <v>13.662570000000001</v>
       </c>
       <c r="H7" s="7">
-        <v>18.18282</v>
+        <v>57.143859999999997</v>
       </c>
       <c r="I7" s="7">
-        <v>1.839183</v>
-      </c>
-      <c r="J7" s="7">
-        <v>7.0411830000000002</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7">
-        <v>10.806179999999999</v>
+        <v>6.134029</v>
       </c>
       <c r="L7" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>6.134029</v>
-      </c>
+        <v>57.143859999999997</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
-        <v>57.143859999999997</v>
+        <v>2.638995</v>
       </c>
       <c r="P7" s="7">
-        <v>1E-3</v>
+        <v>14.000999999999999</v>
       </c>
       <c r="Q7" s="7">
-        <v>2.4009999999999998</v>
-      </c>
-      <c r="R7" s="7">
-        <v>5.0010000000000003</v>
-      </c>
-      <c r="S7" s="7">
-        <v>8.6966520000000003</v>
-      </c>
-      <c r="T7" s="7">
-        <v>2.6058210000000002</v>
-      </c>
-      <c r="U7" s="7">
-        <v>19.27928</v>
-      </c>
-      <c r="V7" s="7">
-        <v>5.1047849999999997</v>
-      </c>
-      <c r="W7" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7">
-        <v>2.638995</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>14.000999999999999</v>
-      </c>
-      <c r="AA7" s="7">
         <v>0.23743510000000001</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0.66766669999999995</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>1.2298789999999999</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>1.575026</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>4.6402190000000001</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>2.8096480000000001</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7">
-        <v>10.873089999999999</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>57.143859999999997</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>4.1186470000000002</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>8.3343330000000009</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>14.625999999999999</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>2.1146929999999999</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>8.7934000000000001</v>
-      </c>
-      <c r="AR7" s="7">
-        <v>9.9526160000000008</v>
-      </c>
-      <c r="AS7" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7">
-        <v>0.12649160000000001</v>
+        <v>0.119336</v>
       </c>
       <c r="D8" s="7">
         <v>14.000999999999999</v>
@@ -16656,128 +18267,44 @@
       <c r="E8" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4"/>
+      <c r="G8" s="7">
+        <v>0.12649160000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="I8" s="7">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>0.1074138</v>
+      </c>
+      <c r="L8" s="7">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="M8" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12.32704</v>
-      </c>
-      <c r="J8" s="7">
-        <v>190.6695</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.7902053</v>
-      </c>
-      <c r="L8" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0.1074138</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
-        <v>14.000999999999999</v>
+        <v>9.6530299999999999E-2</v>
       </c>
       <c r="P8" s="7">
-        <v>1E-3</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="Q8" s="7">
         <v>1E-3</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="T8" s="7">
-        <v>14.065770000000001</v>
-      </c>
-      <c r="U8" s="7">
-        <v>288.26830000000001</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0.52622480000000005</v>
-      </c>
-      <c r="W8" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7">
-        <v>9.6530299999999999E-2</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>6.2510000000000003</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>8.3837019999999995</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>93.109579999999994</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0.43069689999999999</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7">
-        <v>0.119336</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>14.000999999999999</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>13.1006</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>222.30199999999999</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>0.70620470000000002</v>
-      </c>
-      <c r="AS8" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
-        <v>158.55260000000001</v>
+        <v>159.3768</v>
       </c>
       <c r="D9" s="7">
         <v>400.00099999999998</v>
@@ -16785,128 +18312,44 @@
       <c r="E9" s="7">
         <v>37.500999999999998</v>
       </c>
-      <c r="F9" s="7">
-        <v>102.22320000000001</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="7">
-        <v>148.001</v>
+        <v>158.55260000000001</v>
       </c>
       <c r="H9" s="7">
-        <v>197.33430000000001</v>
+        <v>400.00099999999998</v>
       </c>
       <c r="I9" s="7">
-        <v>0.98967879999999997</v>
-      </c>
-      <c r="J9" s="7">
-        <v>3.9274849999999999</v>
-      </c>
+        <v>37.500999999999998</v>
+      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7">
-        <v>76.634540000000001</v>
+        <v>164.36850000000001</v>
       </c>
       <c r="L9" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>164.36850000000001</v>
-      </c>
+        <v>400.00099999999998</v>
+      </c>
+      <c r="M9" s="7">
+        <v>37.500999999999998</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
-        <v>400.00099999999998</v>
+        <v>136.00399999999999</v>
       </c>
       <c r="P9" s="7">
+        <v>339.87439999999998</v>
+      </c>
+      <c r="Q9" s="7">
         <v>37.500999999999998</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>121.251</v>
-      </c>
-      <c r="R9" s="7">
-        <v>160.001</v>
-      </c>
-      <c r="S9" s="7">
-        <v>196.6112</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.7178331</v>
-      </c>
-      <c r="U9" s="7">
-        <v>3.788116</v>
-      </c>
-      <c r="V9" s="7">
-        <v>61.741700000000002</v>
-      </c>
-      <c r="W9" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7">
-        <v>136.00399999999999</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>339.87439999999998</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>37.500999999999998</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>100.6677</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>116.6677</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>169.50919999999999</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0.91331669999999998</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>3.414514</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>50.009300000000003</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7">
-        <v>159.3768</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>400.00099999999998</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>37.500999999999998</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>107.501</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>150.001</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>195.4727</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>0.94361950000000006</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>4.0350710000000003</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>71.590580000000003</v>
-      </c>
-      <c r="AS9" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>64.610150000000004</v>
+        <v>67.428479999999993</v>
       </c>
       <c r="D10" s="7">
         <v>281.81920000000002</v>
@@ -16914,128 +18357,44 @@
       <c r="E10" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="7">
-        <v>12.500999999999999</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="7">
-        <v>50.000999999999998</v>
+        <v>64.610150000000004</v>
       </c>
       <c r="H10" s="7">
-        <v>100.001</v>
+        <v>281.81920000000002</v>
       </c>
       <c r="I10" s="7">
-        <v>1.2172559999999999</v>
-      </c>
-      <c r="J10" s="7">
-        <v>4.357634</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="7">
-        <v>62.944980000000001</v>
+        <v>73.199150000000003</v>
       </c>
       <c r="L10" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>73.199150000000003</v>
-      </c>
+        <v>281.81920000000002</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
-        <v>281.81920000000002</v>
+        <v>68.687129999999996</v>
       </c>
       <c r="P10" s="7">
+        <v>230.001</v>
+      </c>
+      <c r="Q10" s="7">
         <v>1E-3</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>31.69331</v>
-      </c>
-      <c r="R10" s="7">
-        <v>60.000999999999998</v>
-      </c>
-      <c r="S10" s="7">
-        <v>102.22320000000001</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1.064214</v>
-      </c>
-      <c r="U10" s="7">
-        <v>3.838797</v>
-      </c>
-      <c r="V10" s="7">
-        <v>55.982669999999999</v>
-      </c>
-      <c r="W10" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7">
-        <v>68.687129999999996</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>230.001</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>31.726890000000001</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>66.667659999999998</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>109.3343</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0.3885942</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>2.7286060000000001</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>42.467100000000002</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7">
-        <v>67.428479999999993</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>281.81920000000002</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>21.622620000000001</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>55.000999999999998</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>100.001</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>1.148323</v>
-      </c>
-      <c r="AQ10" s="7">
-        <v>4.23691</v>
-      </c>
-      <c r="AR10" s="7">
-        <v>60.248849999999997</v>
-      </c>
-      <c r="AS10" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>108.6352</v>
+        <v>104.9037</v>
       </c>
       <c r="D11" s="7">
         <v>194.40100000000001</v>
@@ -17043,128 +18402,44 @@
       <c r="E11" s="7">
         <v>48.889890000000001</v>
       </c>
-      <c r="F11" s="7">
-        <v>66.001000000000005</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="7">
-        <v>97.001000000000005</v>
+        <v>108.6352</v>
       </c>
       <c r="H11" s="7">
-        <v>147.001</v>
+        <v>194.40100000000001</v>
       </c>
       <c r="I11" s="7">
-        <v>0.49987179999999998</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1.9340139999999999</v>
-      </c>
+        <v>48.889890000000001</v>
+      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7">
-        <v>49.162610000000001</v>
+        <v>99.025099999999995</v>
       </c>
       <c r="L11" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>99.025099999999995</v>
-      </c>
+        <v>194.40100000000001</v>
+      </c>
+      <c r="M11" s="7">
+        <v>48.889890000000001</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
+        <v>90.576949999999997</v>
+      </c>
+      <c r="P11" s="7">
         <v>194.40100000000001</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>48.889890000000001</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>64.001000000000005</v>
-      </c>
-      <c r="R11" s="7">
-        <v>82.858140000000006</v>
-      </c>
-      <c r="S11" s="7">
-        <v>125.001</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.90290870000000001</v>
-      </c>
-      <c r="U11" s="7">
-        <v>2.6078169999999998</v>
-      </c>
-      <c r="V11" s="7">
-        <v>45.365769999999998</v>
-      </c>
-      <c r="W11" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7">
-        <v>90.576949999999997</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>194.40100000000001</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>48.889890000000001</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>63.549390000000002</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>80.162289999999999</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>117.46769999999999</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0.98762970000000005</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>3.322756</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>35.68676</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7">
-        <v>104.9037</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>194.40100000000001</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>48.889890000000001</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>65.001000000000005</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>90.001000000000005</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>139.6677</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>0.64358230000000005</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>2.1345839999999998</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>47.809919999999998</v>
-      </c>
-      <c r="AS11" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="7">
-        <v>84.253579999999999</v>
+        <v>80.602019999999996</v>
       </c>
       <c r="D12" s="7">
         <v>330.00099999999998</v>
@@ -17172,128 +18447,44 @@
       <c r="E12" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="7">
-        <v>55.770229999999998</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="7">
-        <v>75.501000000000005</v>
+        <v>84.253579999999999</v>
       </c>
       <c r="H12" s="7">
-        <v>102.3694</v>
+        <v>330.00099999999998</v>
       </c>
       <c r="I12" s="7">
-        <v>1.9857899999999999</v>
-      </c>
-      <c r="J12" s="7">
-        <v>9.551183</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="7">
-        <v>53.279780000000002</v>
+        <v>77.359480000000005</v>
       </c>
       <c r="L12" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>77.359480000000005</v>
-      </c>
+        <v>330.00099999999998</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
+        <v>48.54589</v>
+      </c>
+      <c r="P12" s="7">
         <v>330.00099999999998</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>1E-3</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>48.047870000000003</v>
-      </c>
-      <c r="R12" s="7">
-        <v>69.934330000000003</v>
-      </c>
-      <c r="S12" s="7">
-        <v>101.30540000000001</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1.0975109999999999</v>
-      </c>
-      <c r="U12" s="7">
-        <v>6.2959259999999997</v>
-      </c>
-      <c r="V12" s="7">
-        <v>43.267249999999997</v>
-      </c>
-      <c r="W12" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7">
-        <v>48.54589</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>330.00099999999998</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>31.130030000000001</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>44.220999999999997</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>67.556560000000005</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>2.7526809999999999</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>26.94735</v>
-      </c>
-      <c r="AG12" s="7">
-        <v>27.633590000000002</v>
-      </c>
-      <c r="AH12" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7">
-        <v>80.602019999999996</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>330.00099999999998</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>51.000999999999998</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>72.026309999999995</v>
-      </c>
-      <c r="AO12" s="7">
-        <v>100.001</v>
-      </c>
-      <c r="AP12" s="7">
-        <v>1.8703399999999999</v>
-      </c>
-      <c r="AQ12" s="7">
-        <v>9.5454930000000004</v>
-      </c>
-      <c r="AR12" s="7">
-        <v>50.080419999999997</v>
-      </c>
-      <c r="AS12" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7">
-        <v>0.12606709999999999</v>
+        <v>0.18399689999999999</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -17301,257 +18492,89 @@
       <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4"/>
+      <c r="G13" s="7">
+        <v>0.12606709999999999</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <v>0.28924870000000003</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2.253117</v>
-      </c>
-      <c r="J13" s="7">
-        <v>6.0765370000000001</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.33193929999999999</v>
-      </c>
-      <c r="L13" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>0.28924870000000003</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
+        <v>0.3058824</v>
+      </c>
+      <c r="P13" s="7">
         <v>1</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.92962069999999997</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1.864195</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0.45345479999999999</v>
-      </c>
-      <c r="W13" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7">
-        <v>0.3058824</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>0.8425608</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>1.7099089999999999</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>0.46108159999999998</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7">
-        <v>0.18399689999999999</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>1.6310610000000001</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>3.660361</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>0.38749250000000002</v>
-      </c>
-      <c r="AS13" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <v>2.092905</v>
+        <v>3.677559</v>
       </c>
       <c r="D14" s="7">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="7">
-        <v>1.733333</v>
+        <v>2.092905</v>
       </c>
       <c r="H14" s="7">
-        <v>2.6</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>7.7814420000000002</v>
-      </c>
-      <c r="J14" s="7">
-        <v>213.97130000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7">
-        <v>1.7541359999999999</v>
+        <v>5.5308760000000001</v>
       </c>
       <c r="L14" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>5.5308760000000001</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
-        <v>45</v>
+        <v>14.382860000000001</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7">
-        <v>3</v>
-      </c>
-      <c r="R14" s="7">
-        <v>4.34</v>
-      </c>
-      <c r="S14" s="7">
-        <v>6.5769229999999999</v>
-      </c>
-      <c r="T14" s="7">
-        <v>2.7131400000000001</v>
-      </c>
-      <c r="U14" s="7">
-        <v>14.77624</v>
-      </c>
-      <c r="V14" s="7">
-        <v>4.0337310000000004</v>
-      </c>
-      <c r="W14" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7">
-        <v>14.382860000000001</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>90</v>
-      </c>
-      <c r="AA14" s="7">
         <v>3.0833330000000001</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>8.4285720000000008</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>13.02</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>19.875</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>2.4510909999999999</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>22.0441</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>8.0445899999999995</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7">
-        <v>3.677559</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>1.36</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>2.427778</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>4.25</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>4.0857970000000003</v>
-      </c>
-      <c r="AQ14" s="7">
-        <v>38.576239999999999</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>4.1679310000000003</v>
-      </c>
-      <c r="AS14" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7">
-        <v>0.73873040000000001</v>
+        <v>0.74395610000000001</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
@@ -17559,128 +18582,44 @@
       <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="7">
-        <v>0.66666669999999995</v>
+        <v>0.73873040000000001</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>0.79804109999999995</v>
-      </c>
-      <c r="J15" s="7">
-        <v>5.2275689999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="7">
-        <v>0.36643429999999999</v>
+        <v>0.75504349999999998</v>
       </c>
       <c r="L15" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>0.75504349999999998</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
+        <v>0.74350609999999995</v>
+      </c>
+      <c r="P15" s="7">
         <v>2</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="S15" s="7">
-        <v>1</v>
-      </c>
-      <c r="T15" s="7">
-        <v>1.202288</v>
-      </c>
-      <c r="U15" s="7">
-        <v>6.0844990000000001</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0.34476030000000002</v>
-      </c>
-      <c r="W15" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7">
-        <v>0.74350609999999995</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>1.127515</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>5.9305729999999999</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>0.31875170000000003</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7">
-        <v>0.74395610000000001</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>0.91667200000000004</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>5.5054280000000002</v>
-      </c>
-      <c r="AR15" s="7">
-        <v>0.35801240000000001</v>
-      </c>
-      <c r="AS15" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7">
-        <v>0.64982169999999995</v>
+        <v>0.55694589999999999</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -17688,128 +18627,44 @@
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
-        <v>0.45905990000000002</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="7">
-        <v>0.74657609999999996</v>
+        <v>0.64982169999999995</v>
       </c>
       <c r="H16" s="7">
-        <v>0.88896750000000002</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>-0.81865920000000003</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2.4935160000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7">
-        <v>0.28978009999999998</v>
+        <v>0.41356270000000001</v>
       </c>
       <c r="L16" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0.41356270000000001</v>
-      </c>
+        <v>0.99431840000000005</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>0.99431840000000005</v>
+        <v>0.1792936</v>
       </c>
       <c r="P16" s="7">
+        <v>0.94969190000000003</v>
+      </c>
+      <c r="Q16" s="7">
         <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0.1935278</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0.40588239999999998</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0.62232330000000002</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.14731630000000001</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1.9702010000000001</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0.256803</v>
-      </c>
-      <c r="W16" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7">
-        <v>0.1792936</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0.94969190000000003</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>6.5743899999999994E-2</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>0.12965389999999999</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>0.25473760000000001</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>1.621229</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>5.961506</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>0.1600424</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7">
-        <v>0.55694589999999999</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>0.28882439999999998</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>0.60632180000000002</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>0.83603019999999995</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>-0.3248819</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>1.7964039999999999</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>0.30652679999999999</v>
-      </c>
-      <c r="AS16" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7">
-        <v>0.57109600000000005</v>
+        <v>0.57433230000000002</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -17817,128 +18672,44 @@
       <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>0.57109600000000005</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.28730319999999998</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1.082543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7">
-        <v>0.49494090000000002</v>
+        <v>0.58832090000000004</v>
       </c>
       <c r="L17" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>0.58832090000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7">
+        <v>0.5228758</v>
+      </c>
+      <c r="P17" s="7">
         <v>1</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>1</v>
-      </c>
-      <c r="S17" s="7">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7">
-        <v>-0.35892770000000002</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1.1288290000000001</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0.49218240000000002</v>
-      </c>
-      <c r="W17" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7">
-        <v>0.5228758</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>-9.1599200000000006E-2</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>1.0083899999999999</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>0.4998032</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7">
-        <v>0.57433230000000002</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>-0.3006702</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>1.090403</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>0.4944577</v>
-      </c>
-      <c r="AS17" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7">
-        <v>53.200060000000001</v>
+        <v>52.440469999999998</v>
       </c>
       <c r="D18" s="7">
         <v>74</v>
@@ -17946,257 +18717,89 @@
       <c r="E18" s="7">
         <v>30</v>
       </c>
-      <c r="F18" s="7">
-        <v>51</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="7">
-        <v>52.462589999999999</v>
+        <v>53.200060000000001</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>-1.5472400000000001E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>3.7033879999999999</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7">
-        <v>8.3938360000000003</v>
+        <v>51.305340000000001</v>
       </c>
       <c r="L18" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>51.305340000000001</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M18" s="7">
+        <v>30</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7">
-        <v>74</v>
+        <v>49.082030000000003</v>
       </c>
       <c r="P18" s="7">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="7">
         <v>30</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>48</v>
-      </c>
-      <c r="R18" s="7">
-        <v>52.462589999999999</v>
-      </c>
-      <c r="S18" s="7">
-        <v>53</v>
-      </c>
-      <c r="T18" s="7">
-        <v>-0.39175209999999999</v>
-      </c>
-      <c r="U18" s="7">
-        <v>3.8267009999999999</v>
-      </c>
-      <c r="V18" s="7">
-        <v>7.6566080000000003</v>
-      </c>
-      <c r="W18" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7">
-        <v>49.082030000000003</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>69</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>45</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>52.462589999999999</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>52.462589999999999</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>-0.89303089999999996</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>3.542535</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>6.9949620000000001</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7">
-        <v>52.440469999999998</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>74</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>30</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>50</v>
-      </c>
-      <c r="AN18" s="7">
-        <v>52.462589999999999</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>56</v>
-      </c>
-      <c r="AP18" s="7">
-        <v>-9.6677600000000002E-2</v>
-      </c>
-      <c r="AQ18" s="7">
-        <v>3.814584</v>
-      </c>
-      <c r="AR18" s="7">
-        <v>8.1939259999999994</v>
-      </c>
-      <c r="AS18" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7">
-        <v>7.123024</v>
+        <v>7.1577520000000003</v>
       </c>
       <c r="D19" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
-        <v>6</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="7">
-        <v>7.1577529999999996</v>
+        <v>7.123024</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.47030830000000001</v>
-      </c>
-      <c r="J19" s="7">
-        <v>5.2578529999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="7">
-        <v>1.916199</v>
+        <v>7.2234740000000004</v>
       </c>
       <c r="L19" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>7.2234740000000004</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7">
-        <v>15</v>
+        <v>7.2119739999999997</v>
       </c>
       <c r="P19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7">
-        <v>7</v>
-      </c>
-      <c r="R19" s="7">
-        <v>7.1577529999999996</v>
-      </c>
-      <c r="S19" s="7">
-        <v>8</v>
-      </c>
-      <c r="T19" s="7">
-        <v>-0.21698490000000001</v>
-      </c>
-      <c r="U19" s="7">
-        <v>5.9213089999999999</v>
-      </c>
-      <c r="V19" s="7">
-        <v>1.642671</v>
-      </c>
-      <c r="W19" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7">
-        <v>7.2119739999999997</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>16</v>
-      </c>
-      <c r="AA19" s="7">
         <v>2</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>7</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>7.1577529999999996</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>7.1577529999999996</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>0.61541170000000001</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>8.9648020000000006</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>1.3750230000000001</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7">
-        <v>7.1577520000000003</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>16</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>6</v>
-      </c>
-      <c r="AN19" s="7">
-        <v>7.1577529999999996</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>8</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>-0.40870869999999998</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>5.6033679999999997</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="AS19" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <v>7.3726E-2</v>
+        <v>7.9287800000000005E-2</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -18204,128 +18807,44 @@
       <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="7">
+        <v>7.3726E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
+        <v>9.0594900000000006E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3.262413</v>
-      </c>
-      <c r="J20" s="7">
-        <v>11.64334</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0.2613357</v>
-      </c>
-      <c r="L20" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>9.0594900000000006E-2</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7">
+        <v>8.2352900000000007E-2</v>
+      </c>
+      <c r="P20" s="7">
         <v>1</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0</v>
       </c>
       <c r="Q20" s="7">
         <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <v>2.852678</v>
-      </c>
-      <c r="U20" s="7">
-        <v>9.1377729999999993</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0.28705819999999999</v>
-      </c>
-      <c r="W20" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7">
-        <v>8.2352900000000007E-2</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>3.038519</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>10.2326</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>0.27508149999999998</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7">
-        <v>7.9287800000000005E-2</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="7">
-        <v>3.1142259999999999</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>10.698399999999999</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>0.27019490000000002</v>
-      </c>
-      <c r="AS20" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7">
-        <v>4.2378200000000001</v>
+        <v>4.2782910000000003</v>
       </c>
       <c r="D21" s="7">
         <v>5</v>
@@ -18333,128 +18852,44 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
-        <v>4</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="7">
-        <v>4</v>
+        <v>4.2378200000000001</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>-0.88821170000000005</v>
-      </c>
-      <c r="J21" s="7">
-        <v>6.1236699999999997</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="7">
-        <v>0.64325060000000001</v>
+        <v>4.3538290000000002</v>
       </c>
       <c r="L21" s="7">
-        <v>11597</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>4.3538290000000002</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7">
+        <v>4.3490200000000003</v>
+      </c>
+      <c r="P21" s="7">
         <v>5</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>1</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>4</v>
-      </c>
-      <c r="R21" s="7">
-        <v>4</v>
-      </c>
-      <c r="S21" s="7">
-        <v>5</v>
-      </c>
-      <c r="T21" s="7">
-        <v>-0.49317509999999998</v>
-      </c>
-      <c r="U21" s="7">
-        <v>4.1665070000000002</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0.58093209999999995</v>
-      </c>
-      <c r="W21" s="7">
-        <v>5497</v>
-      </c>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7">
-        <v>4.3490200000000003</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="7">
-        <v>-0.16702729999999999</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>3.807264</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>0.53638770000000002</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>765</v>
-      </c>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7">
-        <v>4.2782910000000003</v>
-      </c>
-      <c r="AK21" s="7">
-        <v>5</v>
-      </c>
-      <c r="AL21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AN21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>5</v>
-      </c>
-      <c r="AP21" s="7">
-        <v>-0.78952040000000001</v>
-      </c>
-      <c r="AQ21" s="7">
-        <v>5.7317600000000004</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>0.62280610000000003</v>
-      </c>
-      <c r="AS21" s="23">
-        <v>17859</v>
       </c>
     </row>
     <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="8">
-        <v>0.19272230000000001</v>
+        <v>0.1767176</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -18462,119 +18897,49 @@
       <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6"/>
+      <c r="G22" s="8">
+        <v>0.19272230000000001</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <v>0.1448063</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1.5580579999999999</v>
-      </c>
-      <c r="J22" s="8">
-        <v>3.4275449999999998</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0.39445380000000002</v>
-      </c>
-      <c r="L22" s="8">
-        <v>11597</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>0.1448063</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="8">
+        <v>0.16339870000000001</v>
+      </c>
+      <c r="P22" s="8">
         <v>1</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
       </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8">
-        <v>2.0186890000000002</v>
-      </c>
-      <c r="U22" s="8">
-        <v>5.0751049999999998</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0.35193740000000001</v>
-      </c>
-      <c r="W22" s="8">
+    </row>
+    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="C23" s="23">
+        <v>17859</v>
+      </c>
+      <c r="G23" s="8">
+        <v>11597</v>
+      </c>
+      <c r="K23" s="7">
         <v>5497</v>
       </c>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8">
-        <v>0.16339870000000001</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>1.8208</v>
-      </c>
-      <c r="AF22" s="8">
-        <v>4.3153129999999997</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>0.36997089999999999</v>
-      </c>
-      <c r="AH22" s="8">
+      <c r="O23" s="7">
         <v>765</v>
-      </c>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8">
-        <v>0.1767176</v>
-      </c>
-      <c r="AK22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="8">
-        <v>1.695109</v>
-      </c>
-      <c r="AQ22" s="8">
-        <v>3.8733949999999999</v>
-      </c>
-      <c r="AR22" s="8">
-        <v>0.38144020000000001</v>
-      </c>
-      <c r="AS22" s="24">
-        <v>17859</v>
       </c>
     </row>
     <row r="24" spans="1:45" ht="15" x14ac:dyDescent="0.15">
@@ -32917,36 +33282,36 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="70"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="87" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
       <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="71" t="s">
         <v>20</v>
       </c>
@@ -32990,7 +33355,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="74">
         <v>562.9</v>
@@ -33012,7 +33377,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" s="74">
         <v>612.20000000000005</v>
@@ -33024,7 +33389,7 @@
         <v>200</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N3" s="74">
         <v>587.1</v>
@@ -33036,12 +33401,12 @@
         <v>200</v>
       </c>
       <c r="Q3" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="74">
         <v>12</v>
@@ -33063,7 +33428,7 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="74">
         <v>19.899999999999999</v>
@@ -33088,7 +33453,7 @@
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="74">
         <v>11</v>
@@ -33110,7 +33475,7 @@
         <v>0.7</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J5" s="74">
         <v>6.2</v>
@@ -33122,7 +33487,7 @@
         <v>0.7</v>
       </c>
       <c r="M5" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N5" s="74">
         <v>2.7</v>
@@ -33134,12 +33499,12 @@
         <v>0.7</v>
       </c>
       <c r="Q5" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="74">
         <v>10.9</v>
@@ -33171,7 +33536,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N6" s="74">
         <v>2.6</v>
@@ -33186,7 +33551,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="74">
         <v>0.1</v>
@@ -33231,7 +33596,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="74">
         <v>159.4</v>
@@ -33253,7 +33618,7 @@
         <v>37.5</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J8" s="74">
         <v>164.4</v>
@@ -33265,7 +33630,7 @@
         <v>37.5</v>
       </c>
       <c r="M8" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N8" s="74">
         <v>136</v>
@@ -33277,12 +33642,12 @@
         <v>37.5</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" s="74">
         <v>67.400000000000006</v>
@@ -33304,7 +33669,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J9" s="74">
         <v>73.2</v>
@@ -33329,7 +33694,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="74">
         <v>104.9</v>
@@ -33351,7 +33716,7 @@
         <v>48.9</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J10" s="74">
         <v>99</v>
@@ -33363,7 +33728,7 @@
         <v>48.9</v>
       </c>
       <c r="M10" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N10" s="74">
         <v>90.6</v>
@@ -33375,12 +33740,12 @@
         <v>48.9</v>
       </c>
       <c r="Q10" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="74">
         <v>80.599999999999994</v>
@@ -33402,7 +33767,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J11" s="74">
         <v>77.400000000000006</v>
@@ -33414,7 +33779,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N11" s="74">
         <v>48.5</v>
@@ -33426,12 +33791,12 @@
         <v>0</v>
       </c>
       <c r="Q11" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="74">
         <v>0.2</v>
@@ -33453,7 +33818,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J12" s="74">
         <v>0.3</v>
@@ -33475,12 +33840,12 @@
         <v>0</v>
       </c>
       <c r="Q12" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="74">
         <v>3.7</v>
@@ -33502,7 +33867,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J13" s="74">
         <v>5.5</v>
@@ -33514,7 +33879,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N13" s="74">
         <v>14.4</v>
@@ -33526,12 +33891,12 @@
         <v>3.1</v>
       </c>
       <c r="Q13" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="74">
         <v>0.7</v>
@@ -33576,7 +33941,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="74">
         <v>0.6</v>
@@ -33598,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J15" s="74">
         <v>0.4</v>
@@ -33610,7 +33975,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N15" s="74">
         <v>0.2</v>
@@ -33622,12 +33987,12 @@
         <v>0</v>
       </c>
       <c r="Q15" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="74">
         <v>0.6</v>
@@ -33659,7 +34024,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N16" s="74">
         <v>0.5</v>
@@ -33674,7 +34039,7 @@
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="74">
         <v>52.4</v>
@@ -33696,7 +34061,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J17" s="74">
         <v>51.3</v>
@@ -33708,7 +34073,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N17" s="74">
         <v>49.1</v>
@@ -33720,12 +34085,12 @@
         <v>30</v>
       </c>
       <c r="Q17" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="74">
         <v>7.2</v>
@@ -33747,7 +34112,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J18" s="74">
         <v>7.2</v>
@@ -33772,7 +34137,7 @@
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="74">
         <v>0.1</v>
@@ -33794,7 +34159,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J19" s="74">
         <v>0.1</v>
@@ -33819,7 +34184,7 @@
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="74">
         <v>4.3</v>
@@ -33841,7 +34206,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J20" s="74">
         <v>4.4000000000000004</v>
@@ -33863,12 +34228,12 @@
         <v>1</v>
       </c>
       <c r="Q20" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="74">
         <v>0.2</v>
@@ -33890,7 +34255,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J21" s="74">
         <v>0.1</v>
@@ -33915,31 +34280,31 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="88">
+        <v>322</v>
+      </c>
+      <c r="B22" s="84">
         <v>17859</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="88">
+      <c r="F22" s="84">
         <v>11597</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="79"/>
-      <c r="J22" s="88">
+      <c r="J22" s="84">
         <v>5497</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="79"/>
-      <c r="N22" s="88">
+      <c r="N22" s="84">
         <v>765</v>
       </c>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
       <c r="Q22" s="79"/>
     </row>
     <row r="23" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
@@ -36061,7 +36426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q21:AM247"/>
   <sheetViews>
-    <sheetView topLeftCell="O6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL54" sqref="AL54"/>
     </sheetView>
   </sheetViews>
@@ -36082,7 +36447,7 @@
         <v>-0.30299999999999999</v>
       </c>
       <c r="U21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V21" t="str">
         <f>T21&amp;U21</f>
@@ -36105,7 +36470,7 @@
         <v>-0.30299999999999999</v>
       </c>
       <c r="AC21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD21" t="str">
         <f>AB21&amp;AC21</f>
@@ -36128,7 +36493,7 @@
         <v>-0.30299999999999999</v>
       </c>
       <c r="AK21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL21" t="str">
         <f>AJ21&amp;AK21</f>
@@ -36140,7 +36505,7 @@
     </row>
     <row r="22" spans="17:39" x14ac:dyDescent="0.15">
       <c r="Q22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R22">
         <v>-1.8128499999999999E-2</v>
@@ -36153,7 +36518,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="U22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V22" t="str">
         <f>T22&amp;U22</f>
@@ -36163,7 +36528,7 @@
         <v>-7.7629999999999999E-3</v>
       </c>
       <c r="Y22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z22">
         <v>-1.8128499999999999E-2</v>
@@ -36176,7 +36541,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="AC22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD22" t="str">
         <f>AB22&amp;AC22</f>
@@ -36186,7 +36551,7 @@
         <v>-7.7629999999999999E-3</v>
       </c>
       <c r="AG22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH22">
         <v>-1.8128499999999999E-2</v>
@@ -36199,7 +36564,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="AK22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL22" t="str">
         <f>AJ22&amp;AK22</f>
@@ -36211,13 +36576,13 @@
     </row>
     <row r="32" spans="17:39" x14ac:dyDescent="0.15">
       <c r="S32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="17:39" x14ac:dyDescent="0.15">
@@ -36228,10 +36593,10 @@
         <v>78</v>
       </c>
       <c r="S33" t="s">
+        <v>263</v>
+      </c>
+      <c r="T33" t="s">
         <v>264</v>
-      </c>
-      <c r="T33" t="s">
-        <v>265</v>
       </c>
       <c r="V33" t="s">
         <v>89</v>
@@ -36246,10 +36611,10 @@
         <v>78</v>
       </c>
       <c r="AA33" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB33" t="s">
         <v>264</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>265</v>
       </c>
       <c r="AD33" t="s">
         <v>89</v>
@@ -36264,10 +36629,10 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>264</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>265</v>
       </c>
       <c r="AL33" t="s">
         <v>89</v>
@@ -36287,7 +36652,7 @@
         <v>0.1489106</v>
       </c>
       <c r="T35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V35">
         <v>-1.9474499999999999E-2</v>
@@ -36305,7 +36670,7 @@
         <v>0.1489106</v>
       </c>
       <c r="AB35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD35">
         <v>-1.9474499999999999E-2</v>
@@ -36323,7 +36688,7 @@
         <v>0.1489106</v>
       </c>
       <c r="AJ35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL35">
         <v>-1.9474499999999999E-2</v>
@@ -36334,7 +36699,7 @@
     </row>
     <row r="36" spans="17:39" x14ac:dyDescent="0.15">
       <c r="Q36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R36">
         <v>-1.8128499999999999E-2</v>
@@ -36343,7 +36708,7 @@
         <v>3.0981499999999999E-2</v>
       </c>
       <c r="T36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V36">
         <v>-9.4998299999999994E-2</v>
@@ -36352,7 +36717,7 @@
         <v>2.64748E-2</v>
       </c>
       <c r="Y36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z36">
         <v>-0.2349774</v>
@@ -36361,7 +36726,7 @@
         <v>3.0981499999999999E-2</v>
       </c>
       <c r="AB36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD36">
         <v>-9.4998299999999994E-2</v>
@@ -36370,7 +36735,7 @@
         <v>2.64748E-2</v>
       </c>
       <c r="AG36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH36">
         <v>-3.4261699999999999E-2</v>
@@ -36379,7 +36744,7 @@
         <v>3.0981499999999999E-2</v>
       </c>
       <c r="AJ36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL36">
         <v>-9.4998299999999994E-2</v>
@@ -36399,7 +36764,7 @@
         <v>0.17417759999999999</v>
       </c>
       <c r="T37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V37">
         <v>1.575661</v>
@@ -36417,7 +36782,7 @@
         <v>0.17417759999999999</v>
       </c>
       <c r="AB37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD37">
         <v>1.575661</v>
@@ -36435,7 +36800,7 @@
         <v>0.17417759999999999</v>
       </c>
       <c r="AJ37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL37">
         <v>1.575661</v>
@@ -36486,58 +36851,58 @@
     </row>
     <row r="41" spans="17:39" x14ac:dyDescent="0.15">
       <c r="Q41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R41">
         <v>0.69607092999999998</v>
       </c>
       <c r="S41" t="s">
+        <v>269</v>
+      </c>
+      <c r="T41" t="s">
         <v>270</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>271</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>272</v>
       </c>
-      <c r="V41" t="s">
-        <v>273</v>
-      </c>
       <c r="Y41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z41">
         <v>0.69607092999999998</v>
       </c>
       <c r="AA41" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB41" t="s">
         <v>270</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>271</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>272</v>
       </c>
-      <c r="AD41" t="s">
-        <v>273</v>
-      </c>
       <c r="AG41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH41">
         <v>0.69607092999999998</v>
       </c>
       <c r="AI41" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>270</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AK41" t="s">
         <v>271</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AL41" t="s">
         <v>272</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="47" spans="17:39" x14ac:dyDescent="0.15">
@@ -43582,7 +43947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O13" workbookViewId="0">
       <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
@@ -46247,7 +46612,7 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="O114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P114">
         <f>ROUND(L114,3)</f>
@@ -46281,7 +46646,7 @@
         <v>3.72146E-2</v>
       </c>
       <c r="K115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L115">
         <v>-3.4261699999999999E-2</v>
@@ -46293,7 +46658,7 @@
         <v>-4.26</v>
       </c>
       <c r="O115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P115">
         <f>ROUND(L115,3)</f>
@@ -46496,22 +46861,22 @@
     </row>
     <row r="130" spans="3:15" ht="15" x14ac:dyDescent="0.15">
       <c r="C130" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D130" s="94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E130" s="94"/>
       <c r="F130" s="81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G130" s="81"/>
       <c r="H130" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I130" s="81"/>
       <c r="J130" s="81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K130" s="81"/>
     </row>
@@ -46526,19 +46891,19 @@
         <v>8.4238000000000004E-3</v>
       </c>
       <c r="F131" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G131" s="67">
         <v>2.2884700000000001E-2</v>
       </c>
       <c r="H131" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I131" s="67">
         <v>2.1470400000000001E-2</v>
       </c>
       <c r="J131" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K131" s="67">
         <v>0.1489106</v>
@@ -46563,24 +46928,24 @@
     </row>
     <row r="133" spans="3:15" ht="15" x14ac:dyDescent="0.15">
       <c r="C133" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D133" s="66"/>
       <c r="E133" s="67"/>
       <c r="F133" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G133" s="67">
         <v>5.2874000000000003E-3</v>
       </c>
       <c r="H133" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I133" s="67">
         <v>4.6338999999999998E-3</v>
       </c>
       <c r="J133" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K133" s="67">
         <v>3.0981499999999999E-2</v>
@@ -47097,7 +47462,7 @@
     </row>
     <row r="163" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C163" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D163" s="92" t="s">
         <v>169</v>
@@ -47121,7 +47486,7 @@
         <v>132</v>
       </c>
       <c r="D164" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E164" s="93"/>
       <c r="F164" s="93"/>
@@ -47156,7 +47521,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="J161:K161"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="J98:K98"/>
@@ -47165,7 +47530,6 @@
     <mergeCell ref="K23:Q23"/>
     <mergeCell ref="K24:Q24"/>
     <mergeCell ref="A86:G86"/>
-    <mergeCell ref="J161:K161"/>
     <mergeCell ref="J162:K162"/>
     <mergeCell ref="J163:K163"/>
     <mergeCell ref="D164:K164"/>
@@ -47181,6 +47545,7 @@
     <mergeCell ref="D163:E163"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D161:E161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47192,8 +47557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BX3" sqref="BX3:BX221"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BW2" sqref="BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47252,10 +47617,10 @@
         <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -47305,13 +47670,13 @@
         <v>240</v>
       </c>
       <c r="BW2" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="BX2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BZ2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -47594,7 +47959,7 @@
         <v>1.3505399999999999E-2</v>
       </c>
       <c r="BY3" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BZ3" s="68">
         <f>$K$5+2*$K$9*Q5+$K$13*Q8+$K$14*Q9+$K$15*Q10</f>
@@ -47904,7 +48269,7 @@
         <v>1.34979E-2</v>
       </c>
       <c r="BY4" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BZ4" s="68">
         <f>$K$6+2*$K$10*Q8+$K$13*Q5+$K$16*Q9+$K$17*Q10</f>
@@ -48238,7 +48603,7 @@
         <v>1.34904E-2</v>
       </c>
       <c r="BY5" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BZ5" s="68">
         <f>$K$7+2*$K$11*Q9+$K$14*Q5+$K$16*Q8+$K$18*Q10</f>
@@ -48476,7 +48841,7 @@
         <v>1.3482899999999999E-2</v>
       </c>
       <c r="BY6" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BZ6" s="68">
         <f>(1+2*($K$13/2-(BZ4/BZ3)*$K$9-(BZ3/BZ4)*$K$10)*((BZ3+BZ4)^(-1)))^(-1)</f>
@@ -48714,7 +49079,7 @@
         <v>1.34754E-2</v>
       </c>
       <c r="BY7" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BZ7" s="68">
         <f>(1+2*($K$14/2-(BZ5/BZ3)*$K$9-(BZ3/BZ5)*$K$11)*((BZ3+BZ5)^(-1)))^(-1)</f>
@@ -49048,7 +49413,7 @@
         <v>1.34679E-2</v>
       </c>
       <c r="BY8" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BZ8" s="68">
         <f>(1+2*($K$16/2-(BZ4/BZ5)*$K$11-(BZ5/BZ4)*$K$10)*((BZ4+BZ5)^(-1)))^(-1)</f>
@@ -49873,21 +50238,21 @@
       <c r="CU11" s="107"/>
       <c r="CV11" s="108"/>
       <c r="CW11" s="5"/>
-      <c r="CX11" s="84" t="s">
+      <c r="CX11" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="CY11" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="CY11" s="87" t="s">
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="CZ11" s="87"/>
-      <c r="DA11" s="87"/>
-      <c r="DB11" s="87" t="s">
+      <c r="DC11" s="88"/>
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="99" t="s">
         <v>277</v>
-      </c>
-      <c r="DC11" s="87"/>
-      <c r="DD11" s="87"/>
-      <c r="DE11" s="99" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -50097,24 +50462,24 @@
       <c r="CU12" s="63"/>
       <c r="CV12" s="108"/>
       <c r="CW12" s="5"/>
-      <c r="CX12" s="85"/>
+      <c r="CX12" s="86"/>
       <c r="CY12" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="CZ12" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="CZ12" s="51" t="s">
+      <c r="DA12" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="DA12" s="51" t="s">
-        <v>253</v>
-      </c>
       <c r="DB12" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="DC12" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="DC12" s="50" t="s">
+      <c r="DD12" s="50" t="s">
         <v>280</v>
-      </c>
-      <c r="DD12" s="50" t="s">
-        <v>281</v>
       </c>
       <c r="DE12" s="100"/>
     </row>
@@ -50323,7 +50688,7 @@
       <c r="CV13" s="46"/>
       <c r="CW13" s="5"/>
       <c r="CX13" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CY13" s="53">
         <v>5.0700000000000002E-2</v>
@@ -50552,7 +50917,7 @@
       <c r="CV14" s="46"/>
       <c r="CW14" s="5"/>
       <c r="CX14" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CY14" s="56">
         <v>2.9399999999999999E-2</v>
@@ -50786,7 +51151,7 @@
       <c r="CV15" s="46"/>
       <c r="CW15" s="5"/>
       <c r="CX15" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CY15" s="56">
         <v>3.8E-3</v>
@@ -51020,7 +51385,7 @@
       <c r="CV16" s="46"/>
       <c r="CW16" s="5"/>
       <c r="CX16" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CY16" s="59">
         <v>4.4699999999999997E-2</v>
@@ -51231,16 +51596,16 @@
       </c>
       <c r="BY17" s="37"/>
       <c r="BZ17" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CA17" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="CB17" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="CB17" s="37" t="s">
+      <c r="CC17" s="40" t="s">
         <v>259</v>
-      </c>
-      <c r="CC17" s="40" t="s">
-        <v>260</v>
       </c>
       <c r="CD17" s="37"/>
       <c r="CE17" s="37"/>
@@ -51445,7 +51810,7 @@
         <v>1.29879E-2</v>
       </c>
       <c r="BY18" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BZ18" s="37">
         <v>4.4662471400906303E-2</v>
@@ -51701,21 +52066,21 @@
       <c r="CU19" s="5"/>
       <c r="CV19" s="5"/>
       <c r="CW19" s="5"/>
-      <c r="CX19" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="CY19" s="87" t="s">
+      <c r="CX19" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="CY19" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="CZ19" s="88"/>
+      <c r="DA19" s="88"/>
+      <c r="DB19" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="CZ19" s="87"/>
-      <c r="DA19" s="87"/>
-      <c r="DB19" s="87" t="s">
+      <c r="DC19" s="88"/>
+      <c r="DD19" s="88"/>
+      <c r="DE19" s="99" t="s">
         <v>277</v>
-      </c>
-      <c r="DC19" s="87"/>
-      <c r="DD19" s="87"/>
-      <c r="DE19" s="99" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -51941,22 +52306,22 @@
       <c r="CW20" s="5"/>
       <c r="CX20" s="101"/>
       <c r="CY20" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="CZ20" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="CZ20" s="61" t="s">
+      <c r="DA20" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="DA20" s="61" t="s">
-        <v>253</v>
-      </c>
       <c r="DB20" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="DC20" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="DC20" s="61" t="s">
+      <c r="DD20" s="61" t="s">
         <v>280</v>
-      </c>
-      <c r="DD20" s="61" t="s">
-        <v>281</v>
       </c>
       <c r="DE20" s="102"/>
     </row>
@@ -53552,7 +53917,7 @@
       <c r="CV26" s="46"/>
       <c r="CW26" s="62"/>
       <c r="CX26" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CY26" s="59">
         <v>4.4699999999999997E-2</v>
@@ -55603,7 +55968,7 @@
       <c r="BY40" s="37"/>
       <c r="BZ40" s="37"/>
       <c r="CA40" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CB40" s="38">
         <v>2011</v>
@@ -55691,7 +56056,7 @@
       </c>
       <c r="BY41" s="37"/>
       <c r="BZ41" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CA41" s="37">
         <v>4.4662471400906303E-2</v>
@@ -55765,7 +56130,7 @@
       </c>
       <c r="BY42" s="37"/>
       <c r="BZ42" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CA42" s="37">
         <v>5.4495951307229451E-2</v>
@@ -55839,7 +56204,7 @@
       </c>
       <c r="BY43" s="37"/>
       <c r="BZ43" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CA43" s="37">
         <v>2.6777873830145141E-2</v>
@@ -55913,7 +56278,7 @@
       </c>
       <c r="BY44" s="37"/>
       <c r="BZ44" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CA44" s="40">
         <v>1.0003041609423831</v>
@@ -55987,7 +56352,7 @@
       </c>
       <c r="BY45" s="37"/>
       <c r="BZ45" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CA45" s="40">
         <v>1.557985998238083</v>
@@ -56061,7 +56426,7 @@
       </c>
       <c r="BY46" s="37"/>
       <c r="BZ46" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CA46" s="40">
         <v>0.98647784389121462</v>
@@ -56198,7 +56563,7 @@
       <c r="BY48" s="37"/>
       <c r="BZ48" s="37"/>
       <c r="CA48" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CB48" s="38">
         <v>1</v>
@@ -56267,7 +56632,7 @@
       </c>
       <c r="BY49" s="37"/>
       <c r="BZ49" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CA49" s="37">
         <v>4.4662471400906303E-2</v>
@@ -56339,7 +56704,7 @@
       </c>
       <c r="BY50" s="37"/>
       <c r="BZ50" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CA50" s="37">
         <v>5.4495951307229451E-2</v>
@@ -56411,7 +56776,7 @@
       </c>
       <c r="BY51" s="37"/>
       <c r="BZ51" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CA51" s="37">
         <v>2.6777873830145141E-2</v>
@@ -56459,7 +56824,7 @@
       </c>
       <c r="BY52" s="37"/>
       <c r="BZ52" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CA52" s="40">
         <v>1.0003041609423831</v>
@@ -56507,7 +56872,7 @@
       </c>
       <c r="BY53" s="37"/>
       <c r="BZ53" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CA53" s="40">
         <v>1.557985998238083</v>
@@ -56555,7 +56920,7 @@
       </c>
       <c r="BY54" s="37"/>
       <c r="BZ54" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CA54" s="40">
         <v>0.98647784389121462</v>
@@ -62725,4 +63090,1758 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:F200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>EXP(0.272*LN(E8)-0.034*(LN(E8))^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F72" si="0">EXP(0.272*LN(E9)-0.034*(LN(E9))^2)</f>
+        <v>1.1879161416818029</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.2940622193079729</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.365786504305802</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.4186379750129481</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.4596620083370386</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.4926369279020413</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.5198163072746074</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.542647392249443</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.5621117777836662</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.5789038730763747</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.5935316757319333</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.6063771213299942</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.6177339789740943</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.6278325961611431</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.636856596059616</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.6449544643424168</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.6522477863477369</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.6588372276618504</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.6648069576228752</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.6702279754404803</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.6751606482243775</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.6796566734290643</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.6837606144947688</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.6875111156299751</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.6909418723483562</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.6940824139437169</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.6969587396369508</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.6995938397631976</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.7020081258338422</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.7042197877667329</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.7062450924565489</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.708098634760058</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.7097935496209951</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.711341692260171</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.7127537919674214</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.714039583951142</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.7152079228538626</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.7162668808734303</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.7172238328978746</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.7180855306370766</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.7188581673925531</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.7195474348302617</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.720158572896572</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.7206964138338874</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.7211654211016283</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.7215697238838958</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.721913147762109</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.7221992420452092</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.7224313041784285</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>51</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1.7226124015916318</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>52</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.7227453912977426</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>53</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1.7228329375091365</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.7228775275037755</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.7228814859421651</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>56</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.7228469878100505</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>57</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1.7227760701394006</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>58</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.7226706426410399</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.7225324973657989</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>1.7223633174968327</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>1.7221646853634642</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>62</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>1.7219380897562573</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>63</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>1.7216849326137846</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>1.7214065351434817</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>1.7211041434319785</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>66</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F136" si="1">EXP(0.272*LN(E73)-0.034*(LN(E73))^2)</f>
+        <v>1.7207789335941353</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1.7204320165046332</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1.7200644421512539</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>69</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1.7196772036448027</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>70</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1.7192712409169886</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>71</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1.7188474441343224</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>72</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1.7184066568532366</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1.7179496789390993</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>74</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1.7174772692695308</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>75</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1.716990148240445</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>76</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1.7164890000914401</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>77</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1.715974475065585</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>78</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1.7154471914172162</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>79</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1.7149077372801078</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <v>80</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1.7143566724072108</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>81</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1.7137945297921682</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>82</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1.7132218171818727</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>83</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1.712639018488519</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>84</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1.7120465951088513</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1.7114449871576582</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>86</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1.7108346146219264</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>87</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1.7102158784415535</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>88</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1.7095891615220018</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>89</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1.708954829683839</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>90</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1.7083132325536976</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>91</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1.7076647044008191</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>1.7070095649230141</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>93</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>1.7063481199855628</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>94</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1.7056806623162972</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>95</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>1.7050074721598647</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <v>96</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>1.7043288178939291</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <v>97</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>1.7036449566098562</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <v>98</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>1.7029561346602458</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <v>99</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>1.7022625881754858</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>1.7015645435513405</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>101</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>1.7008622179094486</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>102</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1.7001558195324606</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>103</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>1.6994455482754123</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <v>104</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>1.6987315959548417</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>1.6980141467170187</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>106</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>1.6972933773865859</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>107</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>1.6965694577968009</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <v>108</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>1.6958425511024988</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <v>109</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>1.6951128140768137</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>110</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>1.6943803973926219</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>111</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>1.6936454458896146</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <v>112</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>1.6929080988278398</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <v>113</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>1.6921684901284988</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <v>114</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1.6914267486027359</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <v>115</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1.6906829981691001</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <v>116</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>1.6899373580603303</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <v>117</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>1.6891899430200592</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E125">
+        <v>118</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1.688440863489999</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <v>119</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>1.6876902257881401</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <v>120</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1.686938132278452</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <v>121</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>1.6861846815325532</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>122</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1.6854299684837841</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <v>123</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>1.6846740845740917</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <v>124</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>1.6839171178941088</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <v>125</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="1"/>
+        <v>1.6831591533167876</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <v>126</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="1"/>
+        <v>1.6824002726249294</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>127</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="1"/>
+        <v>1.6816405546329267</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <v>128</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="1"/>
+        <v>1.6808800753030151</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <v>129</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="1"/>
+        <v>1.6801189078563263</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <v>130</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ref="F137:F200" si="2">EXP(0.272*LN(E137)-0.034*(LN(E137))^2)</f>
+        <v>1.6793571228789967</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <v>131</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>1.6785947884235914</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <v>132</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1.6778319701060727</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <v>133</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>1.6770687311985442</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>134</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>1.6763051327179732</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>135</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>1.675541233511092</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>136</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>1.674777090335668</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>137</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>1.6740127579383173</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>138</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>1.6732482891290308</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>139</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>1.672483734852565</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>140</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>1.6717191442568609</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <v>141</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>1.6709545647586128</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <v>142</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>1.670190042106142</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <v>143</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>1.6694256204396829</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E151">
+        <v>144</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>1.6686613423492189</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>145</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>1.6678972489299657</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>146</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>1.6671333798356263</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E154">
+        <v>147</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>1.6663697733295033</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E155">
+        <v>148</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>1.6656064663335823</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <v>149</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>1.6648434944756614</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E157">
+        <v>150</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>1.6640808921346304</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <v>151</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>1.6633186924839705</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E159">
+        <v>152</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>1.6625569275335588</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E160">
+        <v>153</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>1.6617956281698549</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E161">
+        <v>154</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>1.6610348241945307</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E162">
+        <v>155</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>1.6602745443616251</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E163">
+        <v>156</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>1.6595148164132749</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E164">
+        <v>157</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>1.6587556671140926</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E165">
+        <v>158</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>1.6579971222842442</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E166">
+        <v>159</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>1.657239206831282</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E167">
+        <v>160</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>1.6564819447807888</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E168">
+        <v>161</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>1.6557253593058827</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E169">
+        <v>162</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>1.6549694727556277</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E170">
+        <v>163</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>1.6542143066823958</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E171">
+        <v>164</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>1.6534598818682309</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E172">
+        <v>165</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>1.6527062183502459</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E173">
+        <v>166</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>1.651953335445099</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E174">
+        <v>167</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>1.6512012517725863</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E175">
+        <v>168</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>1.6504499852783845</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E176">
+        <v>169</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>1.6496995532559795</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E177">
+        <v>170</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>1.6489499723678143</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E178">
+        <v>171</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>1.6482012586656831</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E179">
+        <v>172</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>1.6474534276104105</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E180">
+        <v>173</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>1.6467064940908334</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E181">
+        <v>174</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>1.6459604724421233</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E182">
+        <v>175</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>1.6452153764634638</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E183">
+        <v>176</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>1.6444712194351225</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E184">
+        <v>177</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>1.6437280141349251</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E185">
+        <v>178</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>1.6429857728541686</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E186">
+        <v>179</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>1.6422445074129866</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E187">
+        <v>180</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>1.6415042291751905</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E188">
+        <v>181</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>1.6407649490626071</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E189">
+        <v>182</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>1.6400266775689318</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E190">
+        <v>183</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>1.6392894247731125</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E191">
+        <v>184</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>1.6385532003522865</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E192">
+        <v>185</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>1.6378180135942859</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E193">
+        <v>186</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>1.6370838734097222</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E194">
+        <v>187</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>1.6363507883436763</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E195">
+        <v>188</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>1.6356187665869977</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E196">
+        <v>189</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="2"/>
+        <v>1.6348878159872322</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E197">
+        <v>190</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="2"/>
+        <v>1.6341579440591942</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E198">
+        <v>191</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="2"/>
+        <v>1.6334291579951921</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E199">
+        <v>192</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="2"/>
+        <v>1.6327014646749194</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E200">
+        <v>193</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="2"/>
+        <v>1.6319748706750286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/回归结果/single玉米.xlsx
+++ b/回归结果/single玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="325">
   <si>
     <t>yield</t>
   </si>
@@ -1847,6 +1847,10 @@
     <t>单产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0.001***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2325,12 +2329,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2343,16 +2341,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2364,13 +2365,16 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -33252,6 +33256,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A73:A74"/>
@@ -33259,11 +33268,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43965,7 +43969,7 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="96" t="s">
         <v>125</v>
       </c>
       <c r="B21" s="80"/>
@@ -43976,15 +43980,15 @@
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -44041,15 +44045,15 @@
       <c r="G24" s="4">
         <v>4.2272999999999998E-2</v>
       </c>
-      <c r="K24" s="95" t="s">
+      <c r="K24" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -45822,10 +45826,10 @@
       <c r="G72" s="11"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J84" s="96" t="s">
+      <c r="J84" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="K84" s="96"/>
+      <c r="K84" s="94"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="J85" s="13">
@@ -45855,15 +45859,15 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
       <c r="J87" s="15">
         <v>-3</v>
       </c>
@@ -46183,10 +46187,10 @@
       <c r="G98" s="4">
         <v>6.13743E-2</v>
       </c>
-      <c r="J98" s="97" t="s">
+      <c r="J98" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="K98" s="97"/>
+      <c r="K98" s="95"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
     </row>
@@ -46863,10 +46867,10 @@
       <c r="C130" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D130" s="94" t="s">
+      <c r="D130" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="E130" s="94"/>
+      <c r="E130" s="98"/>
       <c r="F130" s="81" t="s">
         <v>286</v>
       </c>
@@ -47485,16 +47489,16 @@
       <c r="C164" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D164" s="93" t="s">
+      <c r="D164" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="E164" s="93"/>
-      <c r="F164" s="93"/>
-      <c r="G164" s="93"/>
-      <c r="H164" s="93"/>
-      <c r="I164" s="93"/>
-      <c r="J164" s="93"/>
-      <c r="K164" s="93"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="97"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
+      <c r="I164" s="97"/>
+      <c r="J164" s="97"/>
+      <c r="K164" s="97"/>
     </row>
     <row r="165" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C165" s="4"/>
@@ -47521,15 +47525,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A86:G86"/>
     <mergeCell ref="J162:K162"/>
     <mergeCell ref="J163:K163"/>
     <mergeCell ref="D164:K164"/>
@@ -47546,6 +47541,15 @@
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="D130:E130"/>
     <mergeCell ref="D161:E161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A86:G86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47557,8 +47561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BW2" sqref="BW2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47598,18 +47602,18 @@
       <c r="A2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="94"/>
+      <c r="G2" s="98"/>
       <c r="J2" s="10" t="s">
         <v>66</v>
       </c>
@@ -50229,14 +50233,14 @@
       <c r="CL11" s="37"/>
       <c r="CM11" s="37"/>
       <c r="CN11" s="62"/>
-      <c r="CO11" s="107"/>
-      <c r="CP11" s="107"/>
-      <c r="CQ11" s="107"/>
-      <c r="CR11" s="107"/>
-      <c r="CS11" s="107"/>
-      <c r="CT11" s="107"/>
-      <c r="CU11" s="107"/>
-      <c r="CV11" s="108"/>
+      <c r="CO11" s="100"/>
+      <c r="CP11" s="100"/>
+      <c r="CQ11" s="100"/>
+      <c r="CR11" s="100"/>
+      <c r="CS11" s="100"/>
+      <c r="CT11" s="100"/>
+      <c r="CU11" s="100"/>
+      <c r="CV11" s="101"/>
       <c r="CW11" s="5"/>
       <c r="CX11" s="85" t="s">
         <v>274</v>
@@ -50251,7 +50255,7 @@
       </c>
       <c r="DC11" s="88"/>
       <c r="DD11" s="88"/>
-      <c r="DE11" s="99" t="s">
+      <c r="DE11" s="105" t="s">
         <v>277</v>
       </c>
     </row>
@@ -50453,14 +50457,14 @@
       <c r="CL12" s="38"/>
       <c r="CM12" s="38"/>
       <c r="CN12" s="62"/>
-      <c r="CO12" s="107"/>
+      <c r="CO12" s="100"/>
       <c r="CP12" s="63"/>
       <c r="CQ12" s="63"/>
       <c r="CR12" s="63"/>
       <c r="CS12" s="63"/>
       <c r="CT12" s="63"/>
       <c r="CU12" s="63"/>
-      <c r="CV12" s="108"/>
+      <c r="CV12" s="101"/>
       <c r="CW12" s="5"/>
       <c r="CX12" s="86"/>
       <c r="CY12" s="50" t="s">
@@ -50481,7 +50485,7 @@
       <c r="DD12" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="DE12" s="100"/>
+      <c r="DE12" s="106"/>
     </row>
     <row r="13" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -52079,7 +52083,7 @@
       </c>
       <c r="DC19" s="88"/>
       <c r="DD19" s="88"/>
-      <c r="DE19" s="99" t="s">
+      <c r="DE19" s="105" t="s">
         <v>277</v>
       </c>
     </row>
@@ -52100,7 +52104,7 @@
         <v>2.7310000000000002E-4</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="G20" s="33">
         <v>3.2200000000000002E-4</v>
@@ -52304,7 +52308,7 @@
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="101"/>
+      <c r="CX20" s="107"/>
       <c r="CY20" s="61" t="s">
         <v>250</v>
       </c>
@@ -52323,7 +52327,7 @@
       <c r="DD20" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="DE20" s="102"/>
+      <c r="DE20" s="108"/>
     </row>
     <row r="21" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -52839,14 +52843,14 @@
       <c r="CL22" s="37"/>
       <c r="CM22" s="37"/>
       <c r="CN22" s="62"/>
-      <c r="CO22" s="106"/>
-      <c r="CP22" s="106"/>
-      <c r="CQ22" s="106"/>
-      <c r="CR22" s="106"/>
-      <c r="CS22" s="106"/>
-      <c r="CT22" s="106"/>
-      <c r="CU22" s="106"/>
-      <c r="CV22" s="106"/>
+      <c r="CO22" s="99"/>
+      <c r="CP22" s="99"/>
+      <c r="CQ22" s="99"/>
+      <c r="CR22" s="99"/>
+      <c r="CS22" s="99"/>
+      <c r="CT22" s="99"/>
+      <c r="CU22" s="99"/>
+      <c r="CV22" s="99"/>
       <c r="CW22" s="62"/>
       <c r="CX22" s="57">
         <v>2012</v>
@@ -53113,14 +53117,14 @@
       <c r="CL23" s="37"/>
       <c r="CM23" s="37"/>
       <c r="CN23" s="62"/>
-      <c r="CO23" s="106"/>
+      <c r="CO23" s="99"/>
       <c r="CP23" s="47"/>
       <c r="CQ23" s="47"/>
       <c r="CR23" s="47"/>
       <c r="CS23" s="47"/>
       <c r="CT23" s="47"/>
       <c r="CU23" s="47"/>
-      <c r="CV23" s="106"/>
+      <c r="CV23" s="99"/>
       <c r="CW23" s="62"/>
       <c r="CX23" s="57">
         <v>2013</v>
@@ -55145,10 +55149,10 @@
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="92" t="s">
         <v>167</v>
       </c>
@@ -55252,10 +55256,10 @@
       <c r="A33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="105"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="92" t="s">
         <v>169</v>
       </c>
@@ -55362,10 +55366,10 @@
       <c r="A34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="105"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="92" t="s">
         <v>169</v>
       </c>
@@ -55472,14 +55476,14 @@
       <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
       <c r="H35" s="12"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -55579,14 +55583,14 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="104">
+      <c r="B36" s="103">
         <v>0.34010000000000001</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="35"/>
       <c r="O36" s="4">
         <v>2015</v>
@@ -63054,14 +63058,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CP22:CR22"/>
-    <mergeCell ref="CS22:CU22"/>
-    <mergeCell ref="CO22:CO23"/>
-    <mergeCell ref="CV22:CV23"/>
-    <mergeCell ref="CP11:CR11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CV11:CV12"/>
-    <mergeCell ref="CO11:CO12"/>
+    <mergeCell ref="CX11:CX12"/>
+    <mergeCell ref="CY11:DA11"/>
+    <mergeCell ref="DB11:DD11"/>
+    <mergeCell ref="DE11:DE12"/>
+    <mergeCell ref="CX19:CX20"/>
+    <mergeCell ref="CY19:DA19"/>
+    <mergeCell ref="DB19:DD19"/>
+    <mergeCell ref="DE19:DE20"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B35:G35"/>
@@ -63076,14 +63080,14 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="CX11:CX12"/>
-    <mergeCell ref="CY11:DA11"/>
-    <mergeCell ref="DB11:DD11"/>
-    <mergeCell ref="DE11:DE12"/>
-    <mergeCell ref="CX19:CX20"/>
-    <mergeCell ref="CY19:DA19"/>
-    <mergeCell ref="DB19:DD19"/>
-    <mergeCell ref="DE19:DE20"/>
+    <mergeCell ref="CP22:CR22"/>
+    <mergeCell ref="CS22:CU22"/>
+    <mergeCell ref="CO22:CO23"/>
+    <mergeCell ref="CV22:CV23"/>
+    <mergeCell ref="CP11:CR11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CV11:CV12"/>
+    <mergeCell ref="CO11:CO12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63096,7 +63100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/回归结果/single玉米.xlsx
+++ b/回归结果/single玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -2329,6 +2329,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2341,19 +2347,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2365,16 +2368,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11362,7 +11362,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11935,7 +11934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12017,6 +12015,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一熟玉米</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12033,10 +12057,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -12059,7 +12080,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13269,20 +13290,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13291,10 +13298,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13307,12 +13311,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -13331,20 +13332,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13353,10 +13340,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13368,12 +13352,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -13389,7 +13368,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -13399,16 +13380,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -33256,11 +33230,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A73:A74"/>
@@ -33268,6 +33237,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36430,7 +36404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q21:AM247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AL54" sqref="AL54"/>
     </sheetView>
   </sheetViews>
@@ -43951,7 +43925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="O13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
@@ -43969,7 +43943,7 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B21" s="80"/>
@@ -43980,15 +43954,15 @@
       <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -44045,15 +44019,15 @@
       <c r="G24" s="4">
         <v>4.2272999999999998E-2</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="K24" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -45826,10 +45800,10 @@
       <c r="G72" s="11"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J84" s="94" t="s">
+      <c r="J84" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="K84" s="94"/>
+      <c r="K84" s="96"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="J85" s="13">
@@ -45859,15 +45833,15 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="95"/>
       <c r="J87" s="15">
         <v>-3</v>
       </c>
@@ -46187,10 +46161,10 @@
       <c r="G98" s="4">
         <v>6.13743E-2</v>
       </c>
-      <c r="J98" s="95" t="s">
+      <c r="J98" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="K98" s="95"/>
+      <c r="K98" s="97"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
     </row>
@@ -46867,10 +46841,10 @@
       <c r="C130" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D130" s="98" t="s">
+      <c r="D130" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="E130" s="98"/>
+      <c r="E130" s="94"/>
       <c r="F130" s="81" t="s">
         <v>286</v>
       </c>
@@ -47489,16 +47463,16 @@
       <c r="C164" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D164" s="97" t="s">
+      <c r="D164" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="E164" s="97"/>
-      <c r="F164" s="97"/>
-      <c r="G164" s="97"/>
-      <c r="H164" s="97"/>
-      <c r="I164" s="97"/>
-      <c r="J164" s="97"/>
-      <c r="K164" s="97"/>
+      <c r="E164" s="93"/>
+      <c r="F164" s="93"/>
+      <c r="G164" s="93"/>
+      <c r="H164" s="93"/>
+      <c r="I164" s="93"/>
+      <c r="J164" s="93"/>
+      <c r="K164" s="93"/>
     </row>
     <row r="165" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C165" s="4"/>
@@ -47525,6 +47499,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A86:G86"/>
     <mergeCell ref="J162:K162"/>
     <mergeCell ref="J163:K163"/>
     <mergeCell ref="D164:K164"/>
@@ -47541,15 +47524,6 @@
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="D130:E130"/>
     <mergeCell ref="D161:E161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A86:G86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47561,7 +47535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -47602,18 +47576,18 @@
       <c r="A2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="94"/>
       <c r="J2" s="10" t="s">
         <v>66</v>
       </c>
@@ -50233,14 +50207,14 @@
       <c r="CL11" s="37"/>
       <c r="CM11" s="37"/>
       <c r="CN11" s="62"/>
-      <c r="CO11" s="100"/>
-      <c r="CP11" s="100"/>
-      <c r="CQ11" s="100"/>
-      <c r="CR11" s="100"/>
-      <c r="CS11" s="100"/>
-      <c r="CT11" s="100"/>
-      <c r="CU11" s="100"/>
-      <c r="CV11" s="101"/>
+      <c r="CO11" s="107"/>
+      <c r="CP11" s="107"/>
+      <c r="CQ11" s="107"/>
+      <c r="CR11" s="107"/>
+      <c r="CS11" s="107"/>
+      <c r="CT11" s="107"/>
+      <c r="CU11" s="107"/>
+      <c r="CV11" s="108"/>
       <c r="CW11" s="5"/>
       <c r="CX11" s="85" t="s">
         <v>274</v>
@@ -50255,7 +50229,7 @@
       </c>
       <c r="DC11" s="88"/>
       <c r="DD11" s="88"/>
-      <c r="DE11" s="105" t="s">
+      <c r="DE11" s="99" t="s">
         <v>277</v>
       </c>
     </row>
@@ -50457,14 +50431,14 @@
       <c r="CL12" s="38"/>
       <c r="CM12" s="38"/>
       <c r="CN12" s="62"/>
-      <c r="CO12" s="100"/>
+      <c r="CO12" s="107"/>
       <c r="CP12" s="63"/>
       <c r="CQ12" s="63"/>
       <c r="CR12" s="63"/>
       <c r="CS12" s="63"/>
       <c r="CT12" s="63"/>
       <c r="CU12" s="63"/>
-      <c r="CV12" s="101"/>
+      <c r="CV12" s="108"/>
       <c r="CW12" s="5"/>
       <c r="CX12" s="86"/>
       <c r="CY12" s="50" t="s">
@@ -50485,7 +50459,7 @@
       <c r="DD12" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="DE12" s="106"/>
+      <c r="DE12" s="100"/>
     </row>
     <row r="13" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -52083,7 +52057,7 @@
       </c>
       <c r="DC19" s="88"/>
       <c r="DD19" s="88"/>
-      <c r="DE19" s="105" t="s">
+      <c r="DE19" s="99" t="s">
         <v>277</v>
       </c>
     </row>
@@ -52308,7 +52282,7 @@
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="107"/>
+      <c r="CX20" s="101"/>
       <c r="CY20" s="61" t="s">
         <v>250</v>
       </c>
@@ -52327,7 +52301,7 @@
       <c r="DD20" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="DE20" s="108"/>
+      <c r="DE20" s="102"/>
     </row>
     <row r="21" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -52843,14 +52817,14 @@
       <c r="CL22" s="37"/>
       <c r="CM22" s="37"/>
       <c r="CN22" s="62"/>
-      <c r="CO22" s="99"/>
-      <c r="CP22" s="99"/>
-      <c r="CQ22" s="99"/>
-      <c r="CR22" s="99"/>
-      <c r="CS22" s="99"/>
-      <c r="CT22" s="99"/>
-      <c r="CU22" s="99"/>
-      <c r="CV22" s="99"/>
+      <c r="CO22" s="106"/>
+      <c r="CP22" s="106"/>
+      <c r="CQ22" s="106"/>
+      <c r="CR22" s="106"/>
+      <c r="CS22" s="106"/>
+      <c r="CT22" s="106"/>
+      <c r="CU22" s="106"/>
+      <c r="CV22" s="106"/>
       <c r="CW22" s="62"/>
       <c r="CX22" s="57">
         <v>2012</v>
@@ -53117,14 +53091,14 @@
       <c r="CL23" s="37"/>
       <c r="CM23" s="37"/>
       <c r="CN23" s="62"/>
-      <c r="CO23" s="99"/>
+      <c r="CO23" s="106"/>
       <c r="CP23" s="47"/>
       <c r="CQ23" s="47"/>
       <c r="CR23" s="47"/>
       <c r="CS23" s="47"/>
       <c r="CT23" s="47"/>
       <c r="CU23" s="47"/>
-      <c r="CV23" s="99"/>
+      <c r="CV23" s="106"/>
       <c r="CW23" s="62"/>
       <c r="CX23" s="57">
         <v>2013</v>
@@ -55149,10 +55123,10 @@
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="104"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="92" t="s">
         <v>167</v>
       </c>
@@ -55256,10 +55230,10 @@
       <c r="A33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="104"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="92" t="s">
         <v>169</v>
       </c>
@@ -55366,10 +55340,10 @@
       <c r="A34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="92" t="s">
         <v>169</v>
       </c>
@@ -55476,14 +55450,14 @@
       <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="12"/>
       <c r="J35" s="4" t="s">
         <v>86</v>
@@ -55583,14 +55557,14 @@
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="103">
+      <c r="B36" s="104">
         <v>0.34010000000000001</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="35"/>
       <c r="O36" s="4">
         <v>2015</v>
@@ -63058,14 +63032,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CX11:CX12"/>
-    <mergeCell ref="CY11:DA11"/>
-    <mergeCell ref="DB11:DD11"/>
-    <mergeCell ref="DE11:DE12"/>
-    <mergeCell ref="CX19:CX20"/>
-    <mergeCell ref="CY19:DA19"/>
-    <mergeCell ref="DB19:DD19"/>
-    <mergeCell ref="DE19:DE20"/>
+    <mergeCell ref="CP22:CR22"/>
+    <mergeCell ref="CS22:CU22"/>
+    <mergeCell ref="CO22:CO23"/>
+    <mergeCell ref="CV22:CV23"/>
+    <mergeCell ref="CP11:CR11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CV11:CV12"/>
+    <mergeCell ref="CO11:CO12"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B35:G35"/>
@@ -63080,14 +63054,14 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="CP22:CR22"/>
-    <mergeCell ref="CS22:CU22"/>
-    <mergeCell ref="CO22:CO23"/>
-    <mergeCell ref="CV22:CV23"/>
-    <mergeCell ref="CP11:CR11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CV11:CV12"/>
-    <mergeCell ref="CO11:CO12"/>
+    <mergeCell ref="CX11:CX12"/>
+    <mergeCell ref="CY11:DA11"/>
+    <mergeCell ref="DB11:DD11"/>
+    <mergeCell ref="DE11:DE12"/>
+    <mergeCell ref="CX19:CX20"/>
+    <mergeCell ref="CY19:DA19"/>
+    <mergeCell ref="DB19:DD19"/>
+    <mergeCell ref="DE19:DE20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63100,8 +63074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:F200"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63111,7 +63085,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f>EXP(0.272*LN(E8)-0.034*(LN(E8))^2)</f>
+        <f>EXP( -0.3027926*LN(E8)-0.0181285 *(LN(E8))^2)</f>
         <v>1</v>
       </c>
     </row>

--- a/回归结果/single玉米.xlsx
+++ b/回归结果/single玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,9 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId6"/>
     <sheet name="回归结果" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">回归结果!$A$21:$G$70</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="346">
   <si>
     <t>yield</t>
   </si>
@@ -1851,6 +1853,156 @@
     <t>0.001***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样本数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-0.026</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>0.035**</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>-0.004</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳健标准误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N=17859</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n=5294</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1865,7 +2017,7 @@
     <numFmt numFmtId="181" formatCode="0.0_ "/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,6 +2092,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2049,7 +2215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,6 +2456,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2329,12 +2498,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2345,6 +2508,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,23 +2546,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17932,22 +18125,22 @@
   <sheetData>
     <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -17980,7 +18173,7 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3"/>
@@ -18009,7 +18202,7 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>20</v>
@@ -18921,23 +19114,23 @@
       </c>
     </row>
     <row r="24" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
     </row>
     <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="3"/>
@@ -18994,7 +19187,7 @@
       <c r="AS25" s="3"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="82"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
         <v>20</v>
@@ -21570,23 +21763,23 @@
       </c>
     </row>
     <row r="48" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
     </row>
     <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="3"/>
@@ -21643,7 +21836,7 @@
       <c r="AS49" s="3"/>
     </row>
     <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="82"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
         <v>20</v>
@@ -24221,23 +24414,23 @@
       </c>
     </row>
     <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
     </row>
     <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="81" t="s">
+      <c r="A73" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B73" s="3"/>
@@ -24294,7 +24487,7 @@
       <c r="AS73" s="3"/>
     </row>
     <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="82"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
@@ -26872,23 +27065,23 @@
       </c>
     </row>
     <row r="95" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A95" s="80" t="s">
+      <c r="A95" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="80"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
-      <c r="H95" s="80"/>
-      <c r="I95" s="80"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="80"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="81"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="81"/>
+      <c r="K95" s="81"/>
+      <c r="L95" s="81"/>
     </row>
     <row r="96" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B96" s="3"/>
@@ -26945,7 +27138,7 @@
       <c r="AS96" s="3"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="82"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
         <v>20</v>
@@ -29523,23 +29716,23 @@
       </c>
     </row>
     <row r="118" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A118" s="80" t="s">
+      <c r="A118" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B118" s="80"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="80"/>
-      <c r="I118" s="80"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="80"/>
-      <c r="L118" s="80"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="81"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="81"/>
     </row>
     <row r="119" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A119" s="81" t="s">
+      <c r="A119" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="3"/>
@@ -29596,7 +29789,7 @@
       <c r="AS119" s="3"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="82"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6" t="s">
         <v>20</v>
@@ -33230,6 +33423,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A73:A74"/>
@@ -33237,15 +33435,2373 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:F200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>EXP( -0.3027926*LN(E8)-0.0181285 *(LN(E8))^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F72" si="0">EXP(0.272*LN(E9)-0.034*(LN(E9))^2)</f>
+        <v>1.1879161416818029</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.2940622193079729</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.365786504305802</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.4186379750129481</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.4596620083370386</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.4926369279020413</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.5198163072746074</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.542647392249443</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.5621117777836662</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.5789038730763747</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.5935316757319333</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.6063771213299942</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.6177339789740943</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.6278325961611431</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.636856596059616</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.6449544643424168</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.6522477863477369</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.6588372276618504</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.6648069576228752</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.6702279754404803</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.6751606482243775</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.6796566734290643</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.6837606144947688</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.6875111156299751</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.6909418723483562</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.6940824139437169</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.6969587396369508</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.6995938397631976</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.7020081258338422</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.7042197877667329</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.7062450924565489</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.708098634760058</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.7097935496209951</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.711341692260171</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.7127537919674214</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.714039583951142</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.7152079228538626</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.7162668808734303</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.7172238328978746</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.7180855306370766</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.7188581673925531</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.7195474348302617</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.720158572896572</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.7206964138338874</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.7211654211016283</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.7215697238838958</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.721913147762109</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.7221992420452092</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.7224313041784285</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>51</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1.7226124015916318</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>52</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.7227453912977426</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>53</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1.7228329375091365</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.7228775275037755</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.7228814859421651</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>56</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.7228469878100505</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>57</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1.7227760701394006</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>58</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.7226706426410399</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.7225324973657989</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>1.7223633174968327</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>1.7221646853634642</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>62</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>1.7219380897562573</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>63</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>1.7216849326137846</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>1.7214065351434817</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>1.7211041434319785</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>66</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F136" si="1">EXP(0.272*LN(E73)-0.034*(LN(E73))^2)</f>
+        <v>1.7207789335941353</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1.7204320165046332</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1.7200644421512539</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>69</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1.7196772036448027</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>70</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1.7192712409169886</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>71</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1.7188474441343224</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>72</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1.7184066568532366</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1.7179496789390993</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>74</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1.7174772692695308</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>75</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1.716990148240445</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>76</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1.7164890000914401</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>77</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1.715974475065585</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>78</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1.7154471914172162</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>79</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1.7149077372801078</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <v>80</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1.7143566724072108</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>81</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1.7137945297921682</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>82</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1.7132218171818727</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>83</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1.712639018488519</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>84</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1.7120465951088513</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1.7114449871576582</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>86</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1.7108346146219264</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>87</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1.7102158784415535</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>88</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1.7095891615220018</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>89</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1.708954829683839</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>90</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1.7083132325536976</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>91</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1.7076647044008191</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>1.7070095649230141</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>93</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>1.7063481199855628</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>94</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1.7056806623162972</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>95</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>1.7050074721598647</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <v>96</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>1.7043288178939291</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <v>97</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>1.7036449566098562</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <v>98</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>1.7029561346602458</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <v>99</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>1.7022625881754858</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>1.7015645435513405</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>101</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>1.7008622179094486</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>102</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1.7001558195324606</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>103</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>1.6994455482754123</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <v>104</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>1.6987315959548417</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>1.6980141467170187</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>106</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>1.6972933773865859</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>107</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>1.6965694577968009</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <v>108</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>1.6958425511024988</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <v>109</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>1.6951128140768137</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>110</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>1.6943803973926219</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>111</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>1.6936454458896146</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <v>112</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>1.6929080988278398</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <v>113</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>1.6921684901284988</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <v>114</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1.6914267486027359</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <v>115</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1.6906829981691001</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <v>116</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>1.6899373580603303</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <v>117</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>1.6891899430200592</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E125">
+        <v>118</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1.688440863489999</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <v>119</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>1.6876902257881401</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <v>120</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1.686938132278452</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <v>121</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>1.6861846815325532</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>122</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1.6854299684837841</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <v>123</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>1.6846740845740917</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <v>124</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>1.6839171178941088</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <v>125</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="1"/>
+        <v>1.6831591533167876</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <v>126</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="1"/>
+        <v>1.6824002726249294</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>127</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="1"/>
+        <v>1.6816405546329267</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <v>128</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="1"/>
+        <v>1.6808800753030151</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <v>129</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="1"/>
+        <v>1.6801189078563263</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <v>130</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ref="F137:F200" si="2">EXP(0.272*LN(E137)-0.034*(LN(E137))^2)</f>
+        <v>1.6793571228789967</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <v>131</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>1.6785947884235914</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <v>132</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1.6778319701060727</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <v>133</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>1.6770687311985442</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>134</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>1.6763051327179732</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>135</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>1.675541233511092</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>136</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>1.674777090335668</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>137</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>1.6740127579383173</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>138</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>1.6732482891290308</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>139</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>1.672483734852565</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>140</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>1.6717191442568609</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <v>141</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>1.6709545647586128</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <v>142</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>1.670190042106142</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <v>143</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>1.6694256204396829</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E151">
+        <v>144</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>1.6686613423492189</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>145</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>1.6678972489299657</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>146</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>1.6671333798356263</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E154">
+        <v>147</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>1.6663697733295033</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E155">
+        <v>148</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>1.6656064663335823</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <v>149</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>1.6648434944756614</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E157">
+        <v>150</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>1.6640808921346304</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <v>151</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>1.6633186924839705</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E159">
+        <v>152</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>1.6625569275335588</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E160">
+        <v>153</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>1.6617956281698549</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E161">
+        <v>154</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>1.6610348241945307</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E162">
+        <v>155</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>1.6602745443616251</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E163">
+        <v>156</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>1.6595148164132749</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E164">
+        <v>157</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>1.6587556671140926</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E165">
+        <v>158</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>1.6579971222842442</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E166">
+        <v>159</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>1.657239206831282</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E167">
+        <v>160</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>1.6564819447807888</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E168">
+        <v>161</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>1.6557253593058827</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E169">
+        <v>162</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>1.6549694727556277</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E170">
+        <v>163</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>1.6542143066823958</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E171">
+        <v>164</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>1.6534598818682309</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E172">
+        <v>165</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>1.6527062183502459</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E173">
+        <v>166</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>1.651953335445099</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E174">
+        <v>167</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>1.6512012517725863</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E175">
+        <v>168</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>1.6504499852783845</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E176">
+        <v>169</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>1.6496995532559795</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E177">
+        <v>170</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>1.6489499723678143</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E178">
+        <v>171</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>1.6482012586656831</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E179">
+        <v>172</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>1.6474534276104105</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E180">
+        <v>173</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>1.6467064940908334</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E181">
+        <v>174</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>1.6459604724421233</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E182">
+        <v>175</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>1.6452153764634638</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E183">
+        <v>176</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>1.6444712194351225</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E184">
+        <v>177</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>1.6437280141349251</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E185">
+        <v>178</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>1.6429857728541686</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E186">
+        <v>179</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>1.6422445074129866</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E187">
+        <v>180</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>1.6415042291751905</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E188">
+        <v>181</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>1.6407649490626071</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E189">
+        <v>182</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>1.6400266775689318</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E190">
+        <v>183</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>1.6392894247731125</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E191">
+        <v>184</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>1.6385532003522865</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E192">
+        <v>185</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>1.6378180135942859</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E193">
+        <v>186</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>1.6370838734097222</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E194">
+        <v>187</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>1.6363507883436763</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E195">
+        <v>188</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>1.6356187665869977</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E196">
+        <v>189</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="2"/>
+        <v>1.6348878159872322</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E197">
+        <v>190</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="2"/>
+        <v>1.6341579440591942</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E198">
+        <v>191</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="2"/>
+        <v>1.6334291579951921</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E199">
+        <v>192</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="2"/>
+        <v>1.6327014646749194</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E200">
+        <v>193</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="2"/>
+        <v>1.6319748706750286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="112"/>
+      <c r="B2" s="114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="80">
+        <v>8.4238000000000004E-3</v>
+      </c>
+      <c r="D3" s="80">
+        <v>1.6</v>
+      </c>
+      <c r="E3" s="80">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="80">
+        <v>3.6420000000000002E-4</v>
+      </c>
+      <c r="D4" s="80">
+        <v>-0.21</v>
+      </c>
+      <c r="E4" s="80">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="80">
+        <v>4.8010799999999999E-2</v>
+      </c>
+      <c r="D5" s="80">
+        <v>-0.53</v>
+      </c>
+      <c r="E5" s="80">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="80">
+        <v>9.8022899999999996E-2</v>
+      </c>
+      <c r="D6" s="80">
+        <v>3.72</v>
+      </c>
+      <c r="E6" s="80">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="80">
+        <v>9.1520000000000004E-3</v>
+      </c>
+      <c r="D7" s="80">
+        <v>2.68</v>
+      </c>
+      <c r="E7" s="80">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="80">
+        <v>0.12659599999999999</v>
+      </c>
+      <c r="D8" s="80">
+        <v>-0.32</v>
+      </c>
+      <c r="E8" s="80">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="80">
+        <v>3.6614E-3</v>
+      </c>
+      <c r="D9" s="80">
+        <v>4.01</v>
+      </c>
+      <c r="E9" s="80">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="80">
+        <v>9.7205E-3</v>
+      </c>
+      <c r="D10" s="80">
+        <v>-1.32</v>
+      </c>
+      <c r="E10" s="80">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="80">
+        <v>3.812E-4</v>
+      </c>
+      <c r="D11" s="80">
+        <v>6.17</v>
+      </c>
+      <c r="E11" s="80">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="80">
+        <v>1.3561E-2</v>
+      </c>
+      <c r="D12" s="80">
+        <v>2.57</v>
+      </c>
+      <c r="E12" s="80">
+        <v>0.01</v>
+      </c>
+      <c r="F12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="80">
+        <v>7.8589999999999997E-3</v>
+      </c>
+      <c r="D13" s="80">
+        <v>1.87</v>
+      </c>
+      <c r="E13" s="80">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="80">
+        <v>9.8590000000000006E-4</v>
+      </c>
+      <c r="D14" s="80">
+        <v>-0.16</v>
+      </c>
+      <c r="E14" s="80">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="80">
+        <v>8.4533000000000004E-3</v>
+      </c>
+      <c r="D15" s="80">
+        <v>-1.88</v>
+      </c>
+      <c r="E15" s="80">
+        <v>0.06</v>
+      </c>
+      <c r="F15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="80">
+        <v>1.4404000000000001E-3</v>
+      </c>
+      <c r="D16" s="80">
+        <v>-1.35</v>
+      </c>
+      <c r="E16" s="80">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="80">
+        <v>1.3804800000000001E-2</v>
+      </c>
+      <c r="D17" s="80">
+        <v>-3.22</v>
+      </c>
+      <c r="E17" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="80">
+        <v>1.5215999999999999E-3</v>
+      </c>
+      <c r="D18" s="80">
+        <v>-1.04</v>
+      </c>
+      <c r="E18" s="80">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="80">
+        <v>9.4710000000000003E-3</v>
+      </c>
+      <c r="D19" s="80">
+        <v>-0.39</v>
+      </c>
+      <c r="E19" s="80">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="80">
+        <v>3.2200000000000002E-4</v>
+      </c>
+      <c r="D20" s="80">
+        <v>2.62</v>
+      </c>
+      <c r="E20" s="80">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="80">
+        <v>1.4182000000000001E-3</v>
+      </c>
+      <c r="D21" s="80">
+        <v>1.98</v>
+      </c>
+      <c r="E21" s="80">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="80">
+        <v>8.2039999999999995E-3</v>
+      </c>
+      <c r="D22" s="80">
+        <v>-1.76</v>
+      </c>
+      <c r="E22" s="80">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="80">
+        <v>4.5101000000000004E-3</v>
+      </c>
+      <c r="D23" s="80">
+        <v>5.05</v>
+      </c>
+      <c r="E23" s="80">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="80">
+        <v>6.3163000000000004E-3</v>
+      </c>
+      <c r="D24" s="80">
+        <v>0.11</v>
+      </c>
+      <c r="E24" s="80">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="80">
+        <v>5.3680000000000004E-3</v>
+      </c>
+      <c r="D25" s="80">
+        <v>-2.17</v>
+      </c>
+      <c r="E25" s="80">
+        <v>0.03</v>
+      </c>
+      <c r="F25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="80">
+        <v>1.1677E-3</v>
+      </c>
+      <c r="D26" s="80">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="E26" s="80">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="80">
+        <v>8.3478000000000007E-3</v>
+      </c>
+      <c r="D27" s="80">
+        <v>-9.84</v>
+      </c>
+      <c r="E27" s="80">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="80">
+        <v>9.3638000000000002E-3</v>
+      </c>
+      <c r="D28" s="80">
+        <v>0.48</v>
+      </c>
+      <c r="E28" s="80">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="80">
+        <v>1.1317300000000001E-2</v>
+      </c>
+      <c r="D29" s="80">
+        <v>1.33</v>
+      </c>
+      <c r="E29" s="80">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="80">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="D30" s="80">
+        <v>-2.44</v>
+      </c>
+      <c r="E30" s="80">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="80">
+        <v>0.39273010000000003</v>
+      </c>
+      <c r="D31" s="80">
+        <v>12.75</v>
+      </c>
+      <c r="E31" s="80">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="111" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="115">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -33260,36 +35816,36 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="70"/>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="70"/>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
       <c r="M1" s="70"/>
-      <c r="N1" s="88" t="s">
+      <c r="N1" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
       <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="71" t="s">
         <v>20</v>
       </c>
@@ -34260,29 +36816,29 @@
       <c r="A22" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="85">
         <v>17859</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="84">
+      <c r="F22" s="85">
         <v>11597</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="79"/>
-      <c r="J22" s="84">
+      <c r="J22" s="85">
         <v>5497</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="79"/>
-      <c r="N22" s="84">
+      <c r="N22" s="85">
         <v>765</v>
       </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
       <c r="Q22" s="79"/>
     </row>
     <row r="23" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
@@ -34329,15 +36885,15 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -34346,7 +36902,7 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -34375,7 +36931,7 @@
       <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="26" t="s">
         <v>20</v>
       </c>
@@ -35346,29 +37902,29 @@
       <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="89" t="s">
+      <c r="J23" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="89" t="s">
+      <c r="N23" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="29"/>
     </row>
   </sheetData>
@@ -35419,32 +37975,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="E2" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="I2" s="91" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="I2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -43925,8 +46481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43943,26 +46499,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
@@ -43987,15 +46543,15 @@
       <c r="G23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -44019,15 +46575,15 @@
       <c r="G24" s="4">
         <v>4.2272999999999998E-2</v>
       </c>
-      <c r="K24" s="95" t="s">
+      <c r="K24" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -45800,10 +48356,10 @@
       <c r="G72" s="11"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J84" s="96" t="s">
+      <c r="J84" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="K84" s="96"/>
+      <c r="K84" s="95"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="J85" s="13">
@@ -45815,15 +48371,15 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
       <c r="J86" s="15">
         <v>-2</v>
       </c>
@@ -45833,15 +48389,15 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
       <c r="J87" s="15">
         <v>-3</v>
       </c>
@@ -46161,10 +48717,10 @@
       <c r="G98" s="4">
         <v>6.13743E-2</v>
       </c>
-      <c r="J98" s="97" t="s">
+      <c r="J98" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="K98" s="97"/>
+      <c r="K98" s="96"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
     </row>
@@ -46841,22 +49397,22 @@
       <c r="C130" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D130" s="94" t="s">
+      <c r="D130" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="E130" s="94"/>
-      <c r="F130" s="81" t="s">
+      <c r="E130" s="99"/>
+      <c r="F130" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="G130" s="81"/>
-      <c r="H130" s="81" t="s">
+      <c r="G130" s="82"/>
+      <c r="H130" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="I130" s="81"/>
-      <c r="J130" s="81" t="s">
+      <c r="I130" s="82"/>
+      <c r="J130" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="K130" s="81"/>
+      <c r="K130" s="82"/>
     </row>
     <row r="131" spans="3:15" ht="15" x14ac:dyDescent="0.15">
       <c r="C131" s="4" t="s">
@@ -47400,79 +49956,79 @@
       <c r="C161" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D161" s="92" t="s">
+      <c r="D161" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="E161" s="92"/>
-      <c r="F161" s="92" t="s">
+      <c r="E161" s="93"/>
+      <c r="F161" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="G161" s="92"/>
-      <c r="H161" s="92" t="s">
+      <c r="G161" s="93"/>
+      <c r="H161" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="I161" s="92"/>
-      <c r="J161" s="92" t="s">
+      <c r="I161" s="93"/>
+      <c r="J161" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K161" s="92"/>
+      <c r="K161" s="93"/>
     </row>
     <row r="162" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C162" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D162" s="92" t="s">
+      <c r="D162" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="E162" s="92"/>
-      <c r="F162" s="92" t="s">
+      <c r="E162" s="93"/>
+      <c r="F162" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G162" s="92"/>
-      <c r="H162" s="92" t="s">
+      <c r="G162" s="93"/>
+      <c r="H162" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="I162" s="92"/>
-      <c r="J162" s="92" t="s">
+      <c r="I162" s="93"/>
+      <c r="J162" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="K162" s="92"/>
+      <c r="K162" s="93"/>
     </row>
     <row r="163" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C163" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D163" s="92" t="s">
+      <c r="D163" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="E163" s="92"/>
-      <c r="F163" s="92" t="s">
+      <c r="E163" s="93"/>
+      <c r="F163" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="G163" s="92"/>
-      <c r="H163" s="92" t="s">
+      <c r="G163" s="93"/>
+      <c r="H163" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="I163" s="92"/>
-      <c r="J163" s="92" t="s">
+      <c r="I163" s="93"/>
+      <c r="J163" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="K163" s="92"/>
+      <c r="K163" s="93"/>
     </row>
     <row r="164" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C164" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D164" s="93" t="s">
+      <c r="D164" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="E164" s="93"/>
-      <c r="F164" s="93"/>
-      <c r="G164" s="93"/>
-      <c r="H164" s="93"/>
-      <c r="I164" s="93"/>
-      <c r="J164" s="93"/>
-      <c r="K164" s="93"/>
+      <c r="E164" s="98"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="98"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="98"/>
+      <c r="K164" s="98"/>
     </row>
     <row r="165" spans="3:11" ht="15" x14ac:dyDescent="0.15">
       <c r="C165" s="4"/>
@@ -47499,15 +50055,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A86:G86"/>
     <mergeCell ref="J162:K162"/>
     <mergeCell ref="J163:K163"/>
     <mergeCell ref="D164:K164"/>
@@ -47524,6 +50071,15 @@
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="D130:E130"/>
     <mergeCell ref="D161:E161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A86:G86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47576,18 +50132,18 @@
       <c r="A2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="94"/>
+      <c r="G2" s="99"/>
       <c r="J2" s="10" t="s">
         <v>66</v>
       </c>
@@ -50207,29 +52763,29 @@
       <c r="CL11" s="37"/>
       <c r="CM11" s="37"/>
       <c r="CN11" s="62"/>
-      <c r="CO11" s="107"/>
-      <c r="CP11" s="107"/>
-      <c r="CQ11" s="107"/>
-      <c r="CR11" s="107"/>
-      <c r="CS11" s="107"/>
-      <c r="CT11" s="107"/>
-      <c r="CU11" s="107"/>
-      <c r="CV11" s="108"/>
+      <c r="CO11" s="101"/>
+      <c r="CP11" s="101"/>
+      <c r="CQ11" s="101"/>
+      <c r="CR11" s="101"/>
+      <c r="CS11" s="101"/>
+      <c r="CT11" s="101"/>
+      <c r="CU11" s="101"/>
+      <c r="CV11" s="102"/>
       <c r="CW11" s="5"/>
-      <c r="CX11" s="85" t="s">
+      <c r="CX11" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="CY11" s="88" t="s">
+      <c r="CY11" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="88" t="s">
+      <c r="CZ11" s="89"/>
+      <c r="DA11" s="89"/>
+      <c r="DB11" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="DC11" s="88"/>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="99" t="s">
+      <c r="DC11" s="89"/>
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="106" t="s">
         <v>277</v>
       </c>
     </row>
@@ -50431,16 +52987,16 @@
       <c r="CL12" s="38"/>
       <c r="CM12" s="38"/>
       <c r="CN12" s="62"/>
-      <c r="CO12" s="107"/>
+      <c r="CO12" s="101"/>
       <c r="CP12" s="63"/>
       <c r="CQ12" s="63"/>
       <c r="CR12" s="63"/>
       <c r="CS12" s="63"/>
       <c r="CT12" s="63"/>
       <c r="CU12" s="63"/>
-      <c r="CV12" s="108"/>
+      <c r="CV12" s="102"/>
       <c r="CW12" s="5"/>
-      <c r="CX12" s="86"/>
+      <c r="CX12" s="87"/>
       <c r="CY12" s="50" t="s">
         <v>250</v>
       </c>
@@ -50459,7 +53015,7 @@
       <c r="DD12" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="DE12" s="100"/>
+      <c r="DE12" s="107"/>
     </row>
     <row r="13" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -52044,20 +54600,20 @@
       <c r="CU19" s="5"/>
       <c r="CV19" s="5"/>
       <c r="CW19" s="5"/>
-      <c r="CX19" s="85" t="s">
+      <c r="CX19" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="CY19" s="88" t="s">
+      <c r="CY19" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="CZ19" s="88"/>
-      <c r="DA19" s="88"/>
-      <c r="DB19" s="88" t="s">
+      <c r="CZ19" s="89"/>
+      <c r="DA19" s="89"/>
+      <c r="DB19" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="DC19" s="88"/>
-      <c r="DD19" s="88"/>
-      <c r="DE19" s="99" t="s">
+      <c r="DC19" s="89"/>
+      <c r="DD19" s="89"/>
+      <c r="DE19" s="106" t="s">
         <v>277</v>
       </c>
     </row>
@@ -52282,7 +54838,7 @@
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="101"/>
+      <c r="CX20" s="108"/>
       <c r="CY20" s="61" t="s">
         <v>250</v>
       </c>
@@ -52301,7 +54857,7 @@
       <c r="DD20" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="DE20" s="102"/>
+      <c r="DE20" s="109"/>
     </row>
     <row r="21" spans="1:109" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -52817,14 +55373,14 @@
       <c r="CL22" s="37"/>
       <c r="CM22" s="37"/>
       <c r="CN22" s="62"/>
-      <c r="CO22" s="106"/>
-      <c r="CP22" s="106"/>
-      <c r="CQ22" s="106"/>
-      <c r="CR22" s="106"/>
-      <c r="CS22" s="106"/>
-      <c r="CT22" s="106"/>
-      <c r="CU22" s="106"/>
-      <c r="CV22" s="106"/>
+      <c r="CO22" s="100"/>
+      <c r="CP22" s="100"/>
+      <c r="CQ22" s="100"/>
+      <c r="CR22" s="100"/>
+      <c r="CS22" s="100"/>
+      <c r="CT22" s="100"/>
+      <c r="CU22" s="100"/>
+      <c r="CV22" s="100"/>
       <c r="CW22" s="62"/>
       <c r="CX22" s="57">
         <v>2012</v>
@@ -53091,14 +55647,14 @@
       <c r="CL23" s="37"/>
       <c r="CM23" s="37"/>
       <c r="CN23" s="62"/>
-      <c r="CO23" s="106"/>
+      <c r="CO23" s="100"/>
       <c r="CP23" s="47"/>
       <c r="CQ23" s="47"/>
       <c r="CR23" s="47"/>
       <c r="CS23" s="47"/>
       <c r="CT23" s="47"/>
       <c r="CU23" s="47"/>
-      <c r="CV23" s="106"/>
+      <c r="CV23" s="100"/>
       <c r="CW23" s="62"/>
       <c r="CX23" s="57">
         <v>2013</v>
@@ -55127,14 +57683,14 @@
         <v>166</v>
       </c>
       <c r="C32" s="105"/>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="92"/>
+      <c r="G32" s="93"/>
       <c r="J32" s="4">
         <v>2013</v>
       </c>
@@ -55234,14 +57790,14 @@
         <v>160</v>
       </c>
       <c r="C33" s="105"/>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92" t="s">
+      <c r="E33" s="93"/>
+      <c r="F33" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="92"/>
+      <c r="G33" s="93"/>
       <c r="J33" s="4">
         <v>2014</v>
       </c>
@@ -55344,14 +57900,14 @@
         <v>166</v>
       </c>
       <c r="C34" s="105"/>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92" t="s">
+      <c r="E34" s="93"/>
+      <c r="F34" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="92"/>
+      <c r="G34" s="93"/>
       <c r="J34" s="4">
         <v>2015</v>
       </c>
@@ -63032,14 +65588,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CP22:CR22"/>
-    <mergeCell ref="CS22:CU22"/>
-    <mergeCell ref="CO22:CO23"/>
-    <mergeCell ref="CV22:CV23"/>
-    <mergeCell ref="CP11:CR11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CV11:CV12"/>
-    <mergeCell ref="CO11:CO12"/>
+    <mergeCell ref="CX11:CX12"/>
+    <mergeCell ref="CY11:DA11"/>
+    <mergeCell ref="DB11:DD11"/>
+    <mergeCell ref="DE11:DE12"/>
+    <mergeCell ref="CX19:CX20"/>
+    <mergeCell ref="CY19:DA19"/>
+    <mergeCell ref="DB19:DD19"/>
+    <mergeCell ref="DE19:DE20"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B35:G35"/>
@@ -63054,14 +65610,14 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="CX11:CX12"/>
-    <mergeCell ref="CY11:DA11"/>
-    <mergeCell ref="DB11:DD11"/>
-    <mergeCell ref="DE11:DE12"/>
-    <mergeCell ref="CX19:CX20"/>
-    <mergeCell ref="CY19:DA19"/>
-    <mergeCell ref="DB19:DD19"/>
-    <mergeCell ref="DE19:DE20"/>
+    <mergeCell ref="CP22:CR22"/>
+    <mergeCell ref="CS22:CU22"/>
+    <mergeCell ref="CO22:CO23"/>
+    <mergeCell ref="CV22:CV23"/>
+    <mergeCell ref="CP11:CR11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CV11:CV12"/>
+    <mergeCell ref="CO11:CO12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63072,1754 +65628,561 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:F200"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E8">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.35129E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.4238000000000004E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8">
-        <f>EXP( -0.3027926*LN(E8)-0.0181285 *(LN(E8))^2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F72" si="0">EXP(0.272*LN(E9)-0.034*(LN(E9))^2)</f>
-        <v>1.1879161416818029</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.2940622193079729</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.365786504305802</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1.4186379750129481</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1.4596620083370386</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.4926369279020413</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.5198163072746074</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.542647392249443</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E17">
+      <c r="B3" s="4">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.6420000000000002E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.21</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-2.5562100000000001E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.8010799999999999E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-0.53</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.36421379999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.8022899999999996E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.4553499999999999E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.1520000000000004E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-3.9995000000000003E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.12659599999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-0.32</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.46658E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.6614E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-1.28428E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.7205E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1.32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.3506E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.812E-4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3.4789199999999999E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.3561E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.47087E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.8589999999999997E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-1.5890000000000001E-4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.8590000000000006E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-1.5904999999999999E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.4533000000000004E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-1.88</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-1.9396999999999999E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.4404000000000001E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1.35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-4.4389900000000003E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.3804800000000001E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-3.22</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-1.5807E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.5215999999999999E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-3.6581999999999999E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.4710000000000003E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.4389999999999997E-4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.2200000000000002E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2.8021999999999999E-3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.4182000000000001E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-1.44487E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8.2039999999999995E-3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1.76</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2.2779000000000001E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.5101000000000004E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.05</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.8219999999999999E-4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6.3163000000000004E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-1.1635E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5.3680000000000004E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-2.17</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.5621117777836662</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1.5789038730763747</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E19">
+      <c r="B25" s="4">
+        <v>-4.9348999999999999E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.1677E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-8.2127400000000003E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.3478000000000007E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-9.84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.5275000000000003E-3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.3638000000000002E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1.5935316757319333</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.6063771213299942</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.6177339789740943</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1.6278325961611431</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.636856596059616</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E24">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.6449544643424168</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E25">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.6522477863477369</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E26">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.6588372276618504</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1.6648069576228752</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E28">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.6702279754404803</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.6751606482243775</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E30">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.6796566734290643</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E31">
-        <v>24</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.6837606144947688</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E32">
-        <v>25</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.6875111156299751</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E33">
-        <v>26</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1.6909418723483562</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E34">
-        <v>27</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.6940824139437169</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E35">
-        <v>28</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.6969587396369508</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36">
-        <v>29</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.6995938397631976</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E37">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>1.7020081258338422</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E38">
-        <v>31</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1.7042197877667329</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E39">
-        <v>32</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>1.7062450924565489</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E40">
-        <v>33</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>1.708098634760058</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E41">
-        <v>34</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>1.7097935496209951</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E42">
-        <v>35</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1.711341692260171</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E43">
-        <v>36</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1.7127537919674214</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E44">
-        <v>37</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1.714039583951142</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E45">
-        <v>38</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1.7152079228538626</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E46">
-        <v>39</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1.7162668808734303</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E47">
-        <v>40</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1.7172238328978746</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E48">
-        <v>41</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>1.7180855306370766</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E49">
-        <v>42</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1.7188581673925531</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E50">
-        <v>43</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>1.7195474348302617</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E51">
-        <v>44</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>1.720158572896572</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E52">
-        <v>45</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1.7206964138338874</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E53">
-        <v>46</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>1.7211654211016283</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E54">
-        <v>47</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>1.7215697238838958</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E55">
-        <v>48</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>1.721913147762109</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E56">
-        <v>49</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>1.7221992420452092</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E57">
-        <v>50</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>1.7224313041784285</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E58">
-        <v>51</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>1.7226124015916318</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E59">
-        <v>52</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>1.7227453912977426</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E60">
-        <v>53</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>1.7228329375091365</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E61">
-        <v>54</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>1.7228775275037755</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E62">
-        <v>55</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>1.7228814859421651</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E63">
-        <v>56</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>1.7228469878100505</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E64">
-        <v>57</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>1.7227760701394006</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E65">
-        <v>58</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1.7226706426410399</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E66">
-        <v>59</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1.7225324973657989</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E67">
-        <v>60</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="0"/>
-        <v>1.7223633174968327</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E68">
-        <v>61</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="0"/>
-        <v>1.7221646853634642</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E69">
-        <v>62</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="0"/>
-        <v>1.7219380897562573</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E70">
+      <c r="B28" s="4">
+        <v>1.50279E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.1317300000000001E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="0"/>
-        <v>1.7216849326137846</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E71">
-        <v>64</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="0"/>
-        <v>1.7214065351434817</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E72">
-        <v>65</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="0"/>
-        <v>1.7211041434319785</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E73">
-        <v>66</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ref="F73:F136" si="1">EXP(0.272*LN(E73)-0.034*(LN(E73))^2)</f>
-        <v>1.7207789335941353</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E74">
-        <v>67</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>1.7204320165046332</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E75">
-        <v>68</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>1.7200644421512539</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E76">
-        <v>69</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>1.7196772036448027</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E77">
-        <v>70</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>1.7192712409169886</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E78">
-        <v>71</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>1.7188474441343224</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E79">
-        <v>72</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>1.7184066568532366</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E80">
-        <v>73</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>1.7179496789390993</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E81">
-        <v>74</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>1.7174772692695308</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E82">
-        <v>75</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>1.716990148240445</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E83">
-        <v>76</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>1.7164890000914401</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E84">
-        <v>77</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>1.715974475065585</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E85">
-        <v>78</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>1.7154471914172162</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E86">
-        <v>79</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>1.7149077372801078</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E87">
-        <v>80</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>1.7143566724072108</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E88">
-        <v>81</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>1.7137945297921682</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E89">
-        <v>82</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>1.7132218171818727</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E90">
-        <v>83</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>1.712639018488519</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E91">
-        <v>84</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>1.7120465951088513</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E92">
-        <v>85</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>1.7114449871576582</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E93">
+      <c r="B29" s="4">
+        <v>-3.7802999999999999E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-2.44</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>1.7108346146219264</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E94">
-        <v>87</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>1.7102158784415535</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E95">
-        <v>88</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>1.7095891615220018</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E96">
-        <v>89</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>1.708954829683839</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E97">
-        <v>90</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>1.7083132325536976</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E98">
-        <v>91</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>1.7076647044008191</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E99">
-        <v>92</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>1.7070095649230141</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E100">
-        <v>93</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>1.7063481199855628</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E101">
-        <v>94</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>1.7056806623162972</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E102">
-        <v>95</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>1.7050074721598647</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E103">
+      <c r="B30" s="4">
+        <v>5.0056969999999996</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.39273010000000003</v>
+      </c>
+      <c r="D30" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>1.7043288178939291</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E104">
+      <c r="B31" s="3">
+        <v>0.29920292999999998</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>1.7036449566098562</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E105">
-        <v>98</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>1.7029561346602458</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E106">
-        <v>99</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>1.7022625881754858</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E107">
-        <v>100</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>1.7015645435513405</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E108">
+      <c r="B32" s="4">
+        <v>0.19524606999999999</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>1.7008622179094486</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E109">
-        <v>102</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>1.7001558195324606</v>
-      </c>
-    </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E110">
-        <v>103</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>1.6994455482754123</v>
-      </c>
-    </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E111">
-        <v>104</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>1.6987315959548417</v>
-      </c>
-    </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E112">
-        <v>105</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>1.6980141467170187</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E113">
-        <v>106</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>1.6972933773865859</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E114">
-        <v>107</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>1.6965694577968009</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E115">
-        <v>108</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="1"/>
-        <v>1.6958425511024988</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E116">
-        <v>109</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="1"/>
-        <v>1.6951128140768137</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E117">
-        <v>110</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="1"/>
-        <v>1.6943803973926219</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E118">
-        <v>111</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="1"/>
-        <v>1.6936454458896146</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E119">
-        <v>112</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="1"/>
-        <v>1.6929080988278398</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E120">
-        <v>113</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="1"/>
-        <v>1.6921684901284988</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E121">
-        <v>114</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="1"/>
-        <v>1.6914267486027359</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E122">
-        <v>115</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="1"/>
-        <v>1.6906829981691001</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E123">
-        <v>116</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="1"/>
-        <v>1.6899373580603303</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E124">
-        <v>117</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="1"/>
-        <v>1.6891899430200592</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E125">
-        <v>118</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="1"/>
-        <v>1.688440863489999</v>
-      </c>
-    </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E126">
-        <v>119</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="1"/>
-        <v>1.6876902257881401</v>
-      </c>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E127">
-        <v>120</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="1"/>
-        <v>1.686938132278452</v>
-      </c>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E128">
-        <v>121</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="1"/>
-        <v>1.6861846815325532</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E129">
-        <v>122</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="1"/>
-        <v>1.6854299684837841</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E130">
-        <v>123</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="1"/>
-        <v>1.6846740845740917</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E131">
-        <v>124</v>
-      </c>
-      <c r="F131">
-        <f t="shared" si="1"/>
-        <v>1.6839171178941088</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E132">
-        <v>125</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="1"/>
-        <v>1.6831591533167876</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E133">
-        <v>126</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="1"/>
-        <v>1.6824002726249294</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E134">
+      <c r="B33" s="6">
+        <v>0.70134750000000001</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="1"/>
-        <v>1.6816405546329267</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E135">
-        <v>128</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="1"/>
-        <v>1.6808800753030151</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E136">
-        <v>129</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="1"/>
-        <v>1.6801189078563263</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E137">
-        <v>130</v>
-      </c>
-      <c r="F137">
-        <f t="shared" ref="F137:F200" si="2">EXP(0.272*LN(E137)-0.034*(LN(E137))^2)</f>
-        <v>1.6793571228789967</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E138">
-        <v>131</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="2"/>
-        <v>1.6785947884235914</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E139">
-        <v>132</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="2"/>
-        <v>1.6778319701060727</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E140">
-        <v>133</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="2"/>
-        <v>1.6770687311985442</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E141">
-        <v>134</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="2"/>
-        <v>1.6763051327179732</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E142">
-        <v>135</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="2"/>
-        <v>1.675541233511092</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E143">
-        <v>136</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="2"/>
-        <v>1.674777090335668</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E144">
-        <v>137</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="2"/>
-        <v>1.6740127579383173</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E145">
-        <v>138</v>
-      </c>
-      <c r="F145">
-        <f t="shared" si="2"/>
-        <v>1.6732482891290308</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E146">
-        <v>139</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="2"/>
-        <v>1.672483734852565</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E147">
-        <v>140</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="2"/>
-        <v>1.6717191442568609</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E148">
-        <v>141</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="2"/>
-        <v>1.6709545647586128</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E149">
-        <v>142</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="2"/>
-        <v>1.670190042106142</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E150">
-        <v>143</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="2"/>
-        <v>1.6694256204396829</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E151">
-        <v>144</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="2"/>
-        <v>1.6686613423492189</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E152">
-        <v>145</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="2"/>
-        <v>1.6678972489299657</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E153">
-        <v>146</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="2"/>
-        <v>1.6671333798356263</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E154">
-        <v>147</v>
-      </c>
-      <c r="F154">
-        <f t="shared" si="2"/>
-        <v>1.6663697733295033</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E155">
-        <v>148</v>
-      </c>
-      <c r="F155">
-        <f t="shared" si="2"/>
-        <v>1.6656064663335823</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E156">
-        <v>149</v>
-      </c>
-      <c r="F156">
-        <f t="shared" si="2"/>
-        <v>1.6648434944756614</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E157">
-        <v>150</v>
-      </c>
-      <c r="F157">
-        <f t="shared" si="2"/>
-        <v>1.6640808921346304</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E158">
-        <v>151</v>
-      </c>
-      <c r="F158">
-        <f t="shared" si="2"/>
-        <v>1.6633186924839705</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E159">
-        <v>152</v>
-      </c>
-      <c r="F159">
-        <f t="shared" si="2"/>
-        <v>1.6625569275335588</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E160">
-        <v>153</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="2"/>
-        <v>1.6617956281698549</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E161">
-        <v>154</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="2"/>
-        <v>1.6610348241945307</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E162">
-        <v>155</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="2"/>
-        <v>1.6602745443616251</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E163">
-        <v>156</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="2"/>
-        <v>1.6595148164132749</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E164">
-        <v>157</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="2"/>
-        <v>1.6587556671140926</v>
-      </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E165">
-        <v>158</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="2"/>
-        <v>1.6579971222842442</v>
-      </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E166">
-        <v>159</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="2"/>
-        <v>1.657239206831282</v>
-      </c>
-    </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E167">
-        <v>160</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="2"/>
-        <v>1.6564819447807888</v>
-      </c>
-    </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E168">
-        <v>161</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="2"/>
-        <v>1.6557253593058827</v>
-      </c>
-    </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E169">
-        <v>162</v>
-      </c>
-      <c r="F169">
-        <f t="shared" si="2"/>
-        <v>1.6549694727556277</v>
-      </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E170">
-        <v>163</v>
-      </c>
-      <c r="F170">
-        <f t="shared" si="2"/>
-        <v>1.6542143066823958</v>
-      </c>
-    </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E171">
-        <v>164</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="2"/>
-        <v>1.6534598818682309</v>
-      </c>
-    </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E172">
-        <v>165</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="2"/>
-        <v>1.6527062183502459</v>
-      </c>
-    </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E173">
-        <v>166</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="2"/>
-        <v>1.651953335445099</v>
-      </c>
-    </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E174">
-        <v>167</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="2"/>
-        <v>1.6512012517725863</v>
-      </c>
-    </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E175">
-        <v>168</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="2"/>
-        <v>1.6504499852783845</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E176">
-        <v>169</v>
-      </c>
-      <c r="F176">
-        <f t="shared" si="2"/>
-        <v>1.6496995532559795</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E177">
-        <v>170</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="2"/>
-        <v>1.6489499723678143</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E178">
-        <v>171</v>
-      </c>
-      <c r="F178">
-        <f t="shared" si="2"/>
-        <v>1.6482012586656831</v>
-      </c>
-    </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E179">
-        <v>172</v>
-      </c>
-      <c r="F179">
-        <f t="shared" si="2"/>
-        <v>1.6474534276104105</v>
-      </c>
-    </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E180">
-        <v>173</v>
-      </c>
-      <c r="F180">
-        <f t="shared" si="2"/>
-        <v>1.6467064940908334</v>
-      </c>
-    </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E181">
-        <v>174</v>
-      </c>
-      <c r="F181">
-        <f t="shared" si="2"/>
-        <v>1.6459604724421233</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E182">
-        <v>175</v>
-      </c>
-      <c r="F182">
-        <f t="shared" si="2"/>
-        <v>1.6452153764634638</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E183">
-        <v>176</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="2"/>
-        <v>1.6444712194351225</v>
-      </c>
-    </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E184">
-        <v>177</v>
-      </c>
-      <c r="F184">
-        <f t="shared" si="2"/>
-        <v>1.6437280141349251</v>
-      </c>
-    </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E185">
-        <v>178</v>
-      </c>
-      <c r="F185">
-        <f t="shared" si="2"/>
-        <v>1.6429857728541686</v>
-      </c>
-    </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E186">
-        <v>179</v>
-      </c>
-      <c r="F186">
-        <f t="shared" si="2"/>
-        <v>1.6422445074129866</v>
-      </c>
-    </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E187">
-        <v>180</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="2"/>
-        <v>1.6415042291751905</v>
-      </c>
-    </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E188">
-        <v>181</v>
-      </c>
-      <c r="F188">
-        <f t="shared" si="2"/>
-        <v>1.6407649490626071</v>
-      </c>
-    </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E189">
-        <v>182</v>
-      </c>
-      <c r="F189">
-        <f t="shared" si="2"/>
-        <v>1.6400266775689318</v>
-      </c>
-    </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E190">
-        <v>183</v>
-      </c>
-      <c r="F190">
-        <f t="shared" si="2"/>
-        <v>1.6392894247731125</v>
-      </c>
-    </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E191">
-        <v>184</v>
-      </c>
-      <c r="F191">
-        <f t="shared" si="2"/>
-        <v>1.6385532003522865</v>
-      </c>
-    </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E192">
-        <v>185</v>
-      </c>
-      <c r="F192">
-        <f t="shared" si="2"/>
-        <v>1.6378180135942859</v>
-      </c>
-    </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E193">
-        <v>186</v>
-      </c>
-      <c r="F193">
-        <f t="shared" si="2"/>
-        <v>1.6370838734097222</v>
-      </c>
-    </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E194">
-        <v>187</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="2"/>
-        <v>1.6363507883436763</v>
-      </c>
-    </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E195">
-        <v>188</v>
-      </c>
-      <c r="F195">
-        <f t="shared" si="2"/>
-        <v>1.6356187665869977</v>
-      </c>
-    </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E196">
-        <v>189</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="2"/>
-        <v>1.6348878159872322</v>
-      </c>
-    </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E197">
-        <v>190</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="2"/>
-        <v>1.6341579440591942</v>
-      </c>
-    </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E198">
-        <v>191</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="2"/>
-        <v>1.6334291579951921</v>
-      </c>
-    </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E199">
-        <v>192</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="2"/>
-        <v>1.6327014646749194</v>
-      </c>
-    </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E200">
-        <v>193</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="2"/>
-        <v>1.6319748706750286</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>